--- a/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C19742-1B79-CB40-A46F-D65FC621BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C994A37-023D-3B4B-98F1-2645583709FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -2615,9 +2615,6 @@
     <t>Galium aparine</t>
   </si>
   <si>
-    <t>vCoodUncM</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -3552,6 +3549,9 @@
   </si>
   <si>
     <t>assColl</t>
+  </si>
+  <si>
+    <t>vCoordUncM</t>
   </si>
 </sst>
 </file>
@@ -4040,10 +4040,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4085,43 +4085,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>4</v>
@@ -4136,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>5</v>
@@ -4148,31 +4148,31 @@
         <v>15</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>7</v>
@@ -4192,22 +4192,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="4">
         <v>19960925</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
@@ -4216,19 +4216,19 @@
         <v>12</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>14</v>
@@ -4245,22 +4245,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4">
         <v>19960925</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>11</v>
@@ -4269,19 +4269,19 @@
         <v>12</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>14</v>
@@ -4298,22 +4298,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4">
         <v>19960925</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>
@@ -4322,19 +4322,19 @@
         <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>14</v>
@@ -4351,22 +4351,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="H5" s="4">
         <v>19960925</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>11</v>
@@ -4375,19 +4375,19 @@
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>14</v>
@@ -4404,22 +4404,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4">
         <v>19960925</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>11</v>
@@ -4428,19 +4428,19 @@
         <v>12</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>14</v>
@@ -4457,22 +4457,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4">
         <v>19960925</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>11</v>
@@ -4481,19 +4481,19 @@
         <v>12</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>14</v>
@@ -4510,13 +4510,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4">
         <v>19960925</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>11</v>
@@ -4525,25 +4525,25 @@
         <v>12</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -4557,22 +4557,22 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4">
         <v>19960925</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>11</v>
@@ -4581,19 +4581,19 @@
         <v>12</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>14</v>
@@ -4610,22 +4610,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4">
         <v>19960925</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>11</v>
@@ -4634,19 +4634,19 @@
         <v>12</v>
       </c>
       <c r="L10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>14</v>
@@ -4663,22 +4663,22 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="4">
         <v>19960925</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>11</v>
@@ -4687,19 +4687,19 @@
         <v>12</v>
       </c>
       <c r="L11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>14</v>
@@ -4716,22 +4716,22 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="4">
         <v>19960925</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>11</v>
@@ -4740,19 +4740,19 @@
         <v>12</v>
       </c>
       <c r="L12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>14</v>
@@ -4769,22 +4769,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4">
         <v>19960925</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>11</v>
@@ -4793,19 +4793,19 @@
         <v>12</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>14</v>
@@ -4822,22 +4822,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="4">
         <v>19960925</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>11</v>
@@ -4846,19 +4846,19 @@
         <v>12</v>
       </c>
       <c r="L14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD14" s="4" t="s">
         <v>14</v>
@@ -4875,22 +4875,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="4">
         <v>19960925</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>11</v>
@@ -4899,19 +4899,19 @@
         <v>12</v>
       </c>
       <c r="L15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD15" s="4" t="s">
         <v>14</v>
@@ -4928,43 +4928,43 @@
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="4">
         <v>19960925</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="AD16" s="4" t="s">
         <v>14</v>
@@ -4981,49 +4981,49 @@
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="4">
         <v>19960925</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="AD17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -5037,49 +5037,49 @@
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="4">
         <v>19960925</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="AD18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -5093,49 +5093,49 @@
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H19" s="4">
         <v>19960925</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="AD19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -5149,22 +5149,22 @@
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="4">
         <v>19960925</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>11</v>
@@ -5173,19 +5173,19 @@
         <v>12</v>
       </c>
       <c r="L20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>14</v>
@@ -5202,22 +5202,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="4">
         <v>19960925</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>11</v>
@@ -5226,22 +5226,22 @@
         <v>12</v>
       </c>
       <c r="L21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>14</v>
@@ -5258,22 +5258,22 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="4">
         <v>19960925</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>11</v>
@@ -5282,25 +5282,25 @@
         <v>12</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W22" s="4">
         <v>2630</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD22" s="4" t="s">
         <v>14</v>
@@ -5317,22 +5317,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="4">
         <v>19960925</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>11</v>
@@ -5341,25 +5341,25 @@
         <v>12</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W23" s="4">
         <v>2630</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>14</v>
@@ -5376,22 +5376,22 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4">
         <v>19960925</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>11</v>
@@ -5400,19 +5400,19 @@
         <v>12</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD24" s="4" t="s">
         <v>14</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -5441,7 +5441,7 @@
         <v>19960925</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>11</v>
@@ -5450,25 +5450,25 @@
         <v>12</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -5482,22 +5482,22 @@
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="4">
         <v>19960925</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>11</v>
@@ -5506,19 +5506,19 @@
         <v>12</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD26" s="4" t="s">
         <v>14</v>
@@ -5535,22 +5535,22 @@
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H27" s="4">
         <v>19960925</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>11</v>
@@ -5559,19 +5559,19 @@
         <v>12</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD27" s="4" t="s">
         <v>14</v>
@@ -5588,22 +5588,22 @@
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" s="4">
         <v>19960925</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>11</v>
@@ -5612,19 +5612,19 @@
         <v>12</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD28" s="4" t="s">
         <v>14</v>
@@ -5641,22 +5641,22 @@
         <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="4">
         <v>19960925</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>11</v>
@@ -5665,19 +5665,19 @@
         <v>12</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD29" s="4" t="s">
         <v>14</v>
@@ -5694,22 +5694,22 @@
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="4">
         <v>19960925</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>11</v>
@@ -5718,22 +5718,22 @@
         <v>12</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD30" s="4" t="s">
         <v>14</v>
@@ -5750,46 +5750,46 @@
         <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="4">
         <v>19960925</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="AD31" s="4" t="s">
         <v>14</v>
@@ -5806,22 +5806,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="4">
         <v>19960925</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>11</v>
@@ -5830,19 +5830,19 @@
         <v>12</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD32" s="4" t="s">
         <v>14</v>
@@ -5859,22 +5859,22 @@
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="4">
         <v>19960925</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>11</v>
@@ -5883,19 +5883,19 @@
         <v>12</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD33" s="4" t="s">
         <v>14</v>
@@ -5912,10 +5912,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>18</v>
@@ -5924,7 +5924,7 @@
         <v>19960925</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>11</v>
@@ -5933,25 +5933,25 @@
         <v>12</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -5965,22 +5965,22 @@
         <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" s="4">
         <v>19960925</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>11</v>
@@ -5989,19 +5989,19 @@
         <v>12</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD35" s="4" t="s">
         <v>14</v>
@@ -6018,22 +6018,22 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="4">
         <v>19960925</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>11</v>
@@ -6042,19 +6042,19 @@
         <v>12</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD36" s="4" t="s">
         <v>14</v>
@@ -6071,22 +6071,22 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="4">
         <v>19960925</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>11</v>
@@ -6095,16 +6095,16 @@
         <v>12</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>0</v>
@@ -6124,13 +6124,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" s="4">
         <v>19960925</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>11</v>
@@ -6139,25 +6139,25 @@
         <v>12</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6171,22 +6171,22 @@
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="H39" s="4">
         <v>19960925</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>11</v>
@@ -6195,19 +6195,19 @@
         <v>12</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD39" s="4" t="s">
         <v>14</v>
@@ -6224,22 +6224,22 @@
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H40" s="4">
         <v>19960925</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>11</v>
@@ -6248,19 +6248,19 @@
         <v>12</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD40" s="4" t="s">
         <v>14</v>
@@ -6277,22 +6277,22 @@
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H41" s="4">
         <v>19960925</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>11</v>
@@ -6301,19 +6301,19 @@
         <v>12</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD41" s="4" t="s">
         <v>14</v>
@@ -6330,22 +6330,22 @@
         <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="4">
         <v>19960925</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>11</v>
@@ -6354,19 +6354,19 @@
         <v>12</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD42" s="4" t="s">
         <v>14</v>
@@ -6383,22 +6383,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="4">
         <v>19960925</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>11</v>
@@ -6407,19 +6407,19 @@
         <v>12</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD43" s="4" t="s">
         <v>14</v>
@@ -6436,22 +6436,22 @@
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="4">
         <v>19960925</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>11</v>
@@ -6460,19 +6460,19 @@
         <v>12</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD44" s="4" t="s">
         <v>14</v>
@@ -6489,22 +6489,22 @@
         <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" s="4">
         <v>19961030</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>11</v>
@@ -6513,7 +6513,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>13</v>
@@ -6522,16 +6522,16 @@
         <v>8</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD45" s="4" t="s">
         <v>14</v>
@@ -6548,10 +6548,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>18</v>
@@ -6560,7 +6560,7 @@
         <v>19961030</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>11</v>
@@ -6569,7 +6569,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>13</v>
@@ -6578,10 +6578,10 @@
         <v>8</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y46" s="4">
         <v>3</v>
@@ -6590,7 +6590,7 @@
         <v>14</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6604,22 +6604,22 @@
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" s="4">
         <v>19961030</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>11</v>
@@ -6628,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>13</v>
@@ -6640,10 +6640,10 @@
         <v>9</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y47" s="4">
         <v>1</v>
@@ -6663,22 +6663,22 @@
         <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H48" s="4">
         <v>19961030</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>11</v>
@@ -6687,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>13</v>
@@ -6699,10 +6699,10 @@
         <v>9</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD48" s="4" t="s">
         <v>14</v>
@@ -6719,22 +6719,22 @@
         <v>3</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" s="4">
         <v>19961030</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>11</v>
@@ -6743,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>13</v>
@@ -6755,10 +6755,10 @@
         <v>9</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y49" s="4">
         <v>1</v>
@@ -6778,22 +6778,22 @@
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" s="4">
         <v>19961030</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>11</v>
@@ -6802,7 +6802,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>13</v>
@@ -6814,10 +6814,10 @@
         <v>9</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y50" s="4">
         <v>0</v>
@@ -6837,22 +6837,22 @@
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H51" s="4">
         <v>19961030</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>11</v>
@@ -6861,7 +6861,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>13</v>
@@ -6873,10 +6873,10 @@
         <v>9</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y51" s="4">
         <v>0</v>
@@ -6896,22 +6896,22 @@
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H52" s="4">
         <v>19961030</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>11</v>
@@ -6920,7 +6920,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>13</v>
@@ -6932,10 +6932,10 @@
         <v>9</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y52" s="4">
         <v>0</v>
@@ -6955,22 +6955,22 @@
         <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53" s="4">
         <v>19961030</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>11</v>
@@ -6979,7 +6979,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>13</v>
@@ -6991,10 +6991,10 @@
         <v>9</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y53" s="4">
         <v>0</v>
@@ -7014,22 +7014,22 @@
         <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H54" s="4">
         <v>19961030</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>11</v>
@@ -7038,7 +7038,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>13</v>
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y54" s="4">
         <v>0</v>
@@ -7073,22 +7073,22 @@
         <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H55" s="4">
         <v>19961030</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>11</v>
@@ -7097,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>13</v>
@@ -7109,10 +7109,10 @@
         <v>9</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y55" s="4">
         <v>1</v>
@@ -7132,22 +7132,22 @@
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F56" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" s="4">
         <v>19961030</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>11</v>
@@ -7156,7 +7156,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>13</v>
@@ -7168,10 +7168,10 @@
         <v>9</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y56" s="4">
         <v>2</v>
@@ -7191,22 +7191,22 @@
         <v>11</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H57" s="4">
         <v>19961030</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>11</v>
@@ -7215,7 +7215,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>13</v>
@@ -7227,10 +7227,10 @@
         <v>9</v>
       </c>
       <c r="W57" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y57" s="4">
         <v>0</v>
@@ -7250,22 +7250,22 @@
         <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H58" s="4">
         <v>19961030</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>11</v>
@@ -7274,7 +7274,7 @@
         <v>12</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>13</v>
@@ -7286,10 +7286,10 @@
         <v>9</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y58" s="4">
         <v>0</v>
@@ -7309,22 +7309,22 @@
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H59" s="4">
         <v>19961030</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>11</v>
@@ -7333,7 +7333,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>13</v>
@@ -7345,10 +7345,10 @@
         <v>9</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y59" s="4">
         <v>1</v>
@@ -7368,13 +7368,13 @@
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H60" s="4">
         <v>19961030</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>11</v>
@@ -7383,16 +7383,16 @@
         <v>12</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W60" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y60" s="4">
         <v>4</v>
@@ -7401,7 +7401,7 @@
         <v>14</v>
       </c>
       <c r="AF60" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7415,13 +7415,13 @@
         <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H61" s="4">
         <v>19961030</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>11</v>
@@ -7430,7 +7430,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>13</v>
@@ -7442,10 +7442,10 @@
         <v>9</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y61" s="4">
         <v>1</v>
@@ -7454,7 +7454,7 @@
         <v>14</v>
       </c>
       <c r="AF61" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7468,22 +7468,22 @@
         <v>16</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H62" s="4">
         <v>19961030</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>11</v>
@@ -7492,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>13</v>
@@ -7504,10 +7504,10 @@
         <v>9</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X62" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y62" s="4">
         <v>2</v>
@@ -7527,13 +7527,13 @@
         <v>17</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H63" s="4">
         <v>19961030</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>11</v>
@@ -7542,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>13</v>
@@ -7560,7 +7560,7 @@
         <v>14</v>
       </c>
       <c r="AF63" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7574,16 +7574,16 @@
         <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H64" s="4">
         <v>19961030</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>11</v>
@@ -7592,7 +7592,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>13</v>
@@ -7601,7 +7601,7 @@
         <v>8</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>9</v>
@@ -7610,7 +7610,7 @@
         <v>14</v>
       </c>
       <c r="AF64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="34" x14ac:dyDescent="0.2">
@@ -7624,22 +7624,22 @@
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H65" s="4">
         <v>19961030</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>11</v>
@@ -7648,7 +7648,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>13</v>
@@ -7657,7 +7657,7 @@
         <v>8</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q65" s="4" t="s">
         <v>9</v>
@@ -7677,22 +7677,22 @@
         <v>20</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="4">
         <v>19961030</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>11</v>
@@ -7701,7 +7701,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>13</v>
@@ -7710,7 +7710,7 @@
         <v>8</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q66" s="4" t="s">
         <v>9</v>
@@ -7730,22 +7730,22 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67" s="4">
         <v>19961030</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>11</v>
@@ -7754,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>13</v>
@@ -7763,7 +7763,7 @@
         <v>8</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q67" s="4" t="s">
         <v>9</v>
@@ -7786,22 +7786,22 @@
         <v>2</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H68" s="5">
         <v>19961030</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>11</v>
@@ -7810,7 +7810,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M68" s="5" t="s">
         <v>13</v>
@@ -7819,7 +7819,7 @@
         <v>8</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>9</v>
@@ -7842,22 +7842,22 @@
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H69" s="5">
         <v>19961030</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>11</v>
@@ -7866,7 +7866,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>13</v>
@@ -7875,7 +7875,7 @@
         <v>8</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q69" s="5" t="s">
         <v>9</v>
@@ -7898,22 +7898,22 @@
         <v>4</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H70" s="5">
         <v>19961030</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>11</v>
@@ -7922,7 +7922,7 @@
         <v>12</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M70" s="5" t="s">
         <v>13</v>
@@ -7931,7 +7931,7 @@
         <v>8</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q70" s="5" t="s">
         <v>9</v>
@@ -7951,22 +7951,22 @@
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="5">
         <v>19961030</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>11</v>
@@ -7975,7 +7975,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M71" s="5" t="s">
         <v>13</v>
@@ -7984,7 +7984,7 @@
         <v>8</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q71" s="5" t="s">
         <v>9</v>
@@ -7993,7 +7993,7 @@
         <v>2636</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y71" s="4">
         <v>5</v>
@@ -8013,22 +8013,22 @@
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H72" s="5">
         <v>19961030</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>11</v>
@@ -8037,7 +8037,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>13</v>
@@ -8046,7 +8046,7 @@
         <v>8</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q72" s="5" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>2636</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y72" s="4">
         <v>1</v>
@@ -8075,22 +8075,22 @@
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H73" s="5">
         <v>19961030</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>11</v>
@@ -8099,7 +8099,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M73" s="5" t="s">
         <v>13</v>
@@ -8108,7 +8108,7 @@
         <v>8</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q73" s="5" t="s">
         <v>9</v>
@@ -8117,7 +8117,7 @@
         <v>2636</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD73" s="4" t="s">
         <v>14</v>
@@ -8134,22 +8134,22 @@
         <v>8</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H74" s="5">
         <v>19961030</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>11</v>
@@ -8158,7 +8158,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>13</v>
@@ -8167,7 +8167,7 @@
         <v>8</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q74" s="5" t="s">
         <v>9</v>
@@ -8176,7 +8176,7 @@
         <v>2636</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD74" s="4" t="s">
         <v>14</v>
@@ -8193,22 +8193,22 @@
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H75" s="5">
         <v>19961030</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>11</v>
@@ -8217,7 +8217,7 @@
         <v>12</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M75" s="5" t="s">
         <v>13</v>
@@ -8226,7 +8226,7 @@
         <v>8</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q75" s="5" t="s">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>2636</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD75" s="4" t="s">
         <v>14</v>
@@ -8252,22 +8252,22 @@
         <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H76" s="5">
         <v>19961030</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>11</v>
@@ -8276,7 +8276,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M76" s="5" t="s">
         <v>13</v>
@@ -8285,7 +8285,7 @@
         <v>8</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q76" s="5" t="s">
         <v>9</v>
@@ -8294,7 +8294,7 @@
         <v>2636</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD76" s="4" t="s">
         <v>14</v>
@@ -8311,22 +8311,22 @@
         <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77" s="5">
         <v>19961030</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>11</v>
@@ -8335,7 +8335,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>13</v>
@@ -8344,7 +8344,7 @@
         <v>8</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q77" s="5" t="s">
         <v>9</v>
@@ -8353,7 +8353,7 @@
         <v>2636</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD77" s="4" t="s">
         <v>14</v>
@@ -8370,22 +8370,22 @@
         <v>12</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H78" s="5">
         <v>19961030</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>11</v>
@@ -8394,7 +8394,7 @@
         <v>12</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M78" s="5" t="s">
         <v>13</v>
@@ -8403,7 +8403,7 @@
         <v>8</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q78" s="5" t="s">
         <v>9</v>
@@ -8423,22 +8423,22 @@
         <v>13</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" s="5">
         <v>19961030</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>11</v>
@@ -8447,7 +8447,7 @@
         <v>12</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M79" s="5" t="s">
         <v>13</v>
@@ -8456,7 +8456,7 @@
         <v>8</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q79" s="5" t="s">
         <v>9</v>
@@ -8476,22 +8476,22 @@
         <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H80" s="5">
         <v>19961030</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>11</v>
@@ -8500,7 +8500,7 @@
         <v>12</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M80" s="5" t="s">
         <v>13</v>
@@ -8509,7 +8509,7 @@
         <v>8</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q80" s="5" t="s">
         <v>9</v>
@@ -8529,13 +8529,13 @@
         <v>15</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H81" s="5">
         <v>19961030</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>11</v>
@@ -8544,7 +8544,7 @@
         <v>12</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M81" s="5" t="s">
         <v>13</v>
@@ -8553,14 +8553,14 @@
         <v>8</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="AD81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF81" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8574,22 +8574,22 @@
         <v>16</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H82" s="5">
         <v>19961030</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>11</v>
@@ -8598,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M82" s="5" t="s">
         <v>13</v>
@@ -8607,7 +8607,7 @@
         <v>8</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q82" s="5" t="s">
         <v>9</v>
@@ -8627,22 +8627,22 @@
         <v>17</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F83" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H83" s="5">
         <v>19961030</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>11</v>
@@ -8651,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M83" s="5" t="s">
         <v>13</v>
@@ -8660,7 +8660,7 @@
         <v>8</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>9</v>
@@ -8680,22 +8680,22 @@
         <v>18</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H84" s="5">
         <v>19961030</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>11</v>
@@ -8704,7 +8704,7 @@
         <v>12</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M84" s="5" t="s">
         <v>13</v>
@@ -8713,7 +8713,7 @@
         <v>8</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>9</v>
@@ -8733,22 +8733,22 @@
         <v>1</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H85" s="5">
         <v>19961030</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>11</v>
@@ -8757,7 +8757,7 @@
         <v>12</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M85" s="5" t="s">
         <v>13</v>
@@ -8766,7 +8766,7 @@
         <v>8</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q85" s="5" t="s">
         <v>9</v>
@@ -8778,7 +8778,7 @@
         <v>14</v>
       </c>
       <c r="AF85" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8792,22 +8792,22 @@
         <v>2</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H86" s="5">
         <v>19961030</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>11</v>
@@ -8816,7 +8816,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M86" s="5" t="s">
         <v>13</v>
@@ -8825,7 +8825,7 @@
         <v>8</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q86" s="5" t="s">
         <v>9</v>
@@ -8845,22 +8845,22 @@
         <v>3</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H87" s="5">
         <v>19961030</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>11</v>
@@ -8869,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M87" s="5" t="s">
         <v>13</v>
@@ -8878,7 +8878,7 @@
         <v>8</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q87" s="5" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>14</v>
       </c>
       <c r="AF87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8901,22 +8901,22 @@
         <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H88" s="5">
         <v>19961030</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>11</v>
@@ -8925,7 +8925,7 @@
         <v>12</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M88" s="5" t="s">
         <v>13</v>
@@ -8934,7 +8934,7 @@
         <v>8</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q88" s="5" t="s">
         <v>9</v>
@@ -8954,22 +8954,22 @@
         <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H89" s="5">
         <v>19961030</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>11</v>
@@ -8978,7 +8978,7 @@
         <v>12</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M89" s="5" t="s">
         <v>13</v>
@@ -8987,7 +8987,7 @@
         <v>8</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q89" s="5" t="s">
         <v>9</v>
@@ -9007,7 +9007,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>18</v>
@@ -9016,7 +9016,7 @@
         <v>19961030</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>11</v>
@@ -9025,7 +9025,7 @@
         <v>12</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M90" s="5" t="s">
         <v>13</v>
@@ -9034,7 +9034,7 @@
         <v>8</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q90" s="4" t="s">
         <v>0</v>
@@ -9054,22 +9054,22 @@
         <v>7</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H91" s="5">
         <v>19961030</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>11</v>
@@ -9078,7 +9078,7 @@
         <v>12</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M91" s="5" t="s">
         <v>13</v>
@@ -9104,22 +9104,22 @@
         <v>8</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H92" s="5">
         <v>19961030</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>11</v>
@@ -9128,7 +9128,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M92" s="5" t="s">
         <v>13</v>
@@ -9154,22 +9154,22 @@
         <v>9</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H93" s="5">
         <v>19961030</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>11</v>
@@ -9178,7 +9178,7 @@
         <v>12</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M93" s="5" t="s">
         <v>13</v>
@@ -9204,22 +9204,22 @@
         <v>10</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94" s="5">
         <v>19961030</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>11</v>
@@ -9228,7 +9228,7 @@
         <v>12</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M94" s="5" t="s">
         <v>13</v>
@@ -9240,10 +9240,10 @@
         <v>9</v>
       </c>
       <c r="W94" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X94" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD94" s="4" t="s">
         <v>14</v>
@@ -9260,22 +9260,22 @@
         <v>11</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H95" s="5">
         <v>19961030</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>11</v>
@@ -9284,7 +9284,7 @@
         <v>12</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>13</v>
@@ -9296,10 +9296,10 @@
         <v>9</v>
       </c>
       <c r="W95" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X95" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD95" s="4" t="s">
         <v>14</v>
@@ -9316,22 +9316,22 @@
         <v>12</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H96" s="5">
         <v>19961030</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>11</v>
@@ -9340,7 +9340,7 @@
         <v>12</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>13</v>
@@ -9352,10 +9352,10 @@
         <v>9</v>
       </c>
       <c r="W96" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X96" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD96" s="4" t="s">
         <v>14</v>
@@ -9372,22 +9372,22 @@
         <v>13</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H97" s="5">
         <v>19961030</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>11</v>
@@ -9396,7 +9396,7 @@
         <v>12</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>13</v>
@@ -9408,10 +9408,10 @@
         <v>9</v>
       </c>
       <c r="W97" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X97" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD97" s="4" t="s">
         <v>14</v>
@@ -9428,22 +9428,22 @@
         <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H98" s="5">
         <v>19961030</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>11</v>
@@ -9452,7 +9452,7 @@
         <v>12</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M98" s="5" t="s">
         <v>13</v>
@@ -9464,10 +9464,10 @@
         <v>9</v>
       </c>
       <c r="W98" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X98" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD98" s="4" t="s">
         <v>14</v>
@@ -9484,22 +9484,22 @@
         <v>15</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H99" s="5">
         <v>19961030</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>11</v>
@@ -9508,7 +9508,7 @@
         <v>12</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M99" s="5" t="s">
         <v>13</v>
@@ -9520,10 +9520,10 @@
         <v>9</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD99" s="4" t="s">
         <v>14</v>
@@ -9540,16 +9540,16 @@
         <v>16</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="H100" s="5">
         <v>19961030</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>11</v>
@@ -9558,7 +9558,7 @@
         <v>12</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>13</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF100" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -9593,13 +9593,13 @@
         <v>17</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H101" s="5">
         <v>19961030</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>11</v>
@@ -9608,22 +9608,22 @@
         <v>12</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M101" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W101" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF101" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -9637,22 +9637,22 @@
         <v>18</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H102" s="5">
         <v>19961030</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>11</v>
@@ -9661,7 +9661,7 @@
         <v>12</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>13</v>
@@ -9673,10 +9673,10 @@
         <v>9</v>
       </c>
       <c r="W102" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD102" s="4" t="s">
         <v>14</v>
@@ -9693,22 +9693,22 @@
         <v>19</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H103" s="5">
         <v>19961030</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>11</v>
@@ -9717,7 +9717,7 @@
         <v>12</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>13</v>
@@ -9729,10 +9729,10 @@
         <v>9</v>
       </c>
       <c r="W103" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD103" s="4" t="s">
         <v>14</v>
@@ -9749,22 +9749,22 @@
         <v>1</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H104" s="5">
         <v>19961030</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>11</v>
@@ -9773,7 +9773,7 @@
         <v>12</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M104" s="5" t="s">
         <v>13</v>
@@ -9785,10 +9785,10 @@
         <v>9</v>
       </c>
       <c r="W104" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD104" s="4" t="s">
         <v>14</v>
@@ -9805,22 +9805,22 @@
         <v>2</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H105" s="5">
         <v>19961030</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>11</v>
@@ -9829,7 +9829,7 @@
         <v>12</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>13</v>
@@ -9841,10 +9841,10 @@
         <v>9</v>
       </c>
       <c r="W105" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X105" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD105" s="4" t="s">
         <v>14</v>
@@ -9861,22 +9861,22 @@
         <v>3</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H106" s="5">
         <v>19961030</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>11</v>
@@ -9885,7 +9885,7 @@
         <v>12</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>13</v>
@@ -9897,10 +9897,10 @@
         <v>9</v>
       </c>
       <c r="W106" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X106" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD106" s="4" t="s">
         <v>14</v>
@@ -9917,22 +9917,22 @@
         <v>4</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H107" s="5">
         <v>19961030</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>11</v>
@@ -9941,7 +9941,7 @@
         <v>12</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M107" s="5" t="s">
         <v>13</v>
@@ -9953,10 +9953,10 @@
         <v>9</v>
       </c>
       <c r="W107" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X107" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD107" s="4" t="s">
         <v>14</v>
@@ -9973,22 +9973,22 @@
         <v>5</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H108" s="5">
         <v>19961030</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>11</v>
@@ -9997,7 +9997,7 @@
         <v>12</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M108" s="5" t="s">
         <v>13</v>
@@ -10006,7 +10006,7 @@
         <v>8</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q108" s="5" t="s">
         <v>9</v>
@@ -10026,22 +10026,22 @@
         <v>6</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H109" s="5">
         <v>19961030</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>11</v>
@@ -10050,7 +10050,7 @@
         <v>12</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>13</v>
@@ -10059,7 +10059,7 @@
         <v>8</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q109" s="5" t="s">
         <v>9</v>
@@ -10079,22 +10079,22 @@
         <v>7</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H110" s="5">
         <v>19961030</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>11</v>
@@ -10103,7 +10103,7 @@
         <v>12</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M110" s="5" t="s">
         <v>13</v>
@@ -10112,7 +10112,7 @@
         <v>8</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q110" s="5" t="s">
         <v>9</v>
@@ -10132,13 +10132,13 @@
         <v>8</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H111" s="5">
         <v>19961030</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>11</v>
@@ -10147,7 +10147,7 @@
         <v>12</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>13</v>
@@ -10156,7 +10156,7 @@
         <v>8</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q111" s="5" t="s">
         <v>9</v>
@@ -10165,7 +10165,7 @@
         <v>14</v>
       </c>
       <c r="AF111" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -10179,22 +10179,22 @@
         <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H112" s="5">
         <v>19961030</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>11</v>
@@ -10203,7 +10203,7 @@
         <v>12</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>13</v>
@@ -10212,7 +10212,7 @@
         <v>8</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q112" s="5" t="s">
         <v>9</v>
@@ -10221,7 +10221,7 @@
         <v>14</v>
       </c>
       <c r="AF112" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="34" x14ac:dyDescent="0.2">
@@ -10235,22 +10235,22 @@
         <v>10</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H113" s="5">
         <v>19961030</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>11</v>
@@ -10259,7 +10259,7 @@
         <v>12</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M113" s="5" t="s">
         <v>13</v>
@@ -10268,7 +10268,7 @@
         <v>8</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q113" s="5" t="s">
         <v>9</v>
@@ -10288,22 +10288,22 @@
         <v>11</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114" s="5">
         <v>19961030</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>11</v>
@@ -10312,7 +10312,7 @@
         <v>12</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>13</v>
@@ -10321,7 +10321,7 @@
         <v>8</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q114" s="5" t="s">
         <v>9</v>
@@ -10341,22 +10341,22 @@
         <v>12</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H115" s="5">
         <v>19961030</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>11</v>
@@ -10365,7 +10365,7 @@
         <v>12</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M115" s="5" t="s">
         <v>13</v>
@@ -10374,7 +10374,7 @@
         <v>8</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>9</v>
@@ -10394,22 +10394,22 @@
         <v>13</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H116" s="5">
         <v>19961030</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>11</v>
@@ -10418,7 +10418,7 @@
         <v>12</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>13</v>
@@ -10427,7 +10427,7 @@
         <v>8</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q116" s="4" t="s">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>5</v>
       </c>
       <c r="AB116" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD116" s="4" t="s">
         <v>14</v>
@@ -10453,22 +10453,22 @@
         <v>14</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H117" s="5">
         <v>19961030</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>11</v>
@@ -10477,7 +10477,7 @@
         <v>12</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>13</v>
@@ -10486,7 +10486,7 @@
         <v>8</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q117" s="5" t="s">
         <v>9</v>
@@ -10506,22 +10506,22 @@
         <v>15</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H118" s="5">
         <v>19961030</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>11</v>
@@ -10530,7 +10530,7 @@
         <v>12</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M118" s="5" t="s">
         <v>13</v>
@@ -10539,13 +10539,13 @@
         <v>8</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB118" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD118" s="4" t="s">
         <v>14</v>
@@ -10562,22 +10562,22 @@
         <v>16</v>
       </c>
       <c r="D119" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H119" s="5">
         <v>19961030</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>11</v>
@@ -10586,7 +10586,7 @@
         <v>12</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>13</v>
@@ -10595,7 +10595,7 @@
         <v>8</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q119" s="5" t="s">
         <v>9</v>
@@ -10615,22 +10615,22 @@
         <v>17</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H120" s="5">
         <v>19961030</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>11</v>
@@ -10639,7 +10639,7 @@
         <v>12</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M120" s="5" t="s">
         <v>13</v>
@@ -10648,7 +10648,7 @@
         <v>8</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q120" s="5" t="s">
         <v>9</v>
@@ -10668,22 +10668,22 @@
         <v>18</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H121" s="5">
         <v>19961030</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>11</v>
@@ -10692,7 +10692,7 @@
         <v>12</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M121" s="5" t="s">
         <v>13</v>
@@ -10701,7 +10701,7 @@
         <v>8</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q121" s="5" t="s">
         <v>0</v>
@@ -10721,22 +10721,22 @@
         <v>19</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H122" s="5">
         <v>19961030</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>11</v>
@@ -10745,7 +10745,7 @@
         <v>12</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>13</v>
@@ -10754,7 +10754,7 @@
         <v>8</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q122" s="5" t="s">
         <v>0</v>
@@ -10774,22 +10774,22 @@
         <v>20</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H123" s="5">
         <v>19961030</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>11</v>
@@ -10798,7 +10798,7 @@
         <v>12</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M123" s="5" t="s">
         <v>13</v>
@@ -10807,7 +10807,7 @@
         <v>8</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q123" s="5" t="s">
         <v>0</v>
@@ -10827,58 +10827,58 @@
         <v>1</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H124" s="4">
         <v>19970619</v>
       </c>
       <c r="I124" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O124" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O124" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S124" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T124" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T124" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U124" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W124" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X124" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD124" s="4" t="s">
         <v>14</v>
@@ -10895,58 +10895,58 @@
         <v>2</v>
       </c>
       <c r="D125" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="F125" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H125" s="4">
         <v>19970619</v>
       </c>
       <c r="I125" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O125" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O125" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S125" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T125" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T125" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U125" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W125" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X125" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD125" s="4" t="s">
         <v>14</v>
@@ -10963,58 +10963,58 @@
         <v>3</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H126" s="4">
         <v>19970619</v>
       </c>
       <c r="I126" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O126" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O126" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S126" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T126" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T126" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U126" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W126" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD126" s="4" t="s">
         <v>14</v>
@@ -11031,58 +11031,58 @@
         <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H127" s="4">
         <v>19970619</v>
       </c>
       <c r="I127" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O127" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M127" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O127" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S127" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T127" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T127" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U127" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W127" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X127" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD127" s="4" t="s">
         <v>14</v>
@@ -11099,7 +11099,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>20</v>
@@ -11114,43 +11114,43 @@
         <v>19970619</v>
       </c>
       <c r="I128" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O128" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O128" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S128" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T128" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T128" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U128" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W128" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X128" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD128" s="4" t="s">
         <v>14</v>
@@ -11167,58 +11167,58 @@
         <v>6</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H129" s="4">
         <v>19970619</v>
       </c>
       <c r="I129" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O129" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L129" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O129" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S129" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T129" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T129" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U129" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W129" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X129" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD129" s="4" t="s">
         <v>14</v>
@@ -11235,58 +11235,58 @@
         <v>7</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H130" s="4">
         <v>19970619</v>
       </c>
       <c r="I130" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O130" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L130" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O130" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S130" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T130" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T130" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="U130" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W130" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X130" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD130" s="4" t="s">
         <v>14</v>
@@ -11303,22 +11303,22 @@
         <v>1</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H131" s="4">
         <v>19970619</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>11</v>
@@ -11327,34 +11327,34 @@
         <v>12</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S131" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T131" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T131" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U131" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W131" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X131" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD131" s="4" t="s">
         <v>14</v>
@@ -11371,22 +11371,22 @@
         <v>2</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H132" s="4">
         <v>19970619</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>11</v>
@@ -11395,34 +11395,34 @@
         <v>12</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S132" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T132" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T132" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U132" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W132" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X132" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD132" s="4" t="s">
         <v>14</v>
@@ -11439,22 +11439,22 @@
         <v>3</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H133" s="4">
         <v>19970619</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J133" s="5" t="s">
         <v>11</v>
@@ -11463,34 +11463,34 @@
         <v>12</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S133" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T133" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T133" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U133" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W133" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X133" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD133" s="4" t="s">
         <v>14</v>
@@ -11522,7 +11522,7 @@
         <v>19970619</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>11</v>
@@ -11531,34 +11531,34 @@
         <v>12</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S134" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T134" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T134" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U134" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W134" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X134" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD134" s="4" t="s">
         <v>14</v>
@@ -11575,22 +11575,22 @@
         <v>5</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H135" s="4">
         <v>19970619</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>11</v>
@@ -11599,34 +11599,34 @@
         <v>12</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S135" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T135" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T135" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U135" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W135" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X135" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD135" s="4" t="s">
         <v>14</v>
@@ -11643,22 +11643,22 @@
         <v>6</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H136" s="4">
         <v>19970619</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J136" s="5" t="s">
         <v>11</v>
@@ -11667,37 +11667,37 @@
         <v>12</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S136" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T136" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T136" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U136" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W136" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X136" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC136" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD136" s="4" t="s">
         <v>14</v>
@@ -11714,22 +11714,22 @@
         <v>7</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H137" s="4">
         <v>19970619</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>11</v>
@@ -11738,34 +11738,34 @@
         <v>12</v>
       </c>
       <c r="L137" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S137" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="T137" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="T137" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="U137" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W137" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD137" s="4" t="s">
         <v>14</v>
@@ -11782,22 +11782,22 @@
         <v>1</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H138" s="4">
         <v>19970619</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J138" s="5" t="s">
         <v>11</v>
@@ -11806,34 +11806,34 @@
         <v>12</v>
       </c>
       <c r="L138" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O138" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="M138" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N138" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O138" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="Q138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S138" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T138" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T138" s="4" t="s">
+      <c r="U138" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="W138" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="X138" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="U138" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="W138" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="X138" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="AD138" s="4" t="s">
         <v>14</v>
@@ -11850,22 +11850,22 @@
         <v>2</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H139" s="4">
         <v>19970619</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J139" s="5" t="s">
         <v>11</v>
@@ -11874,34 +11874,34 @@
         <v>12</v>
       </c>
       <c r="L139" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O139" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="M139" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O139" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="Q139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S139" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T139" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T139" s="4" t="s">
+      <c r="U139" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="W139" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="X139" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="U139" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="W139" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="X139" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="AD139" s="4" t="s">
         <v>14</v>
@@ -11918,22 +11918,22 @@
         <v>3</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H140" s="4">
         <v>19970619</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>11</v>
@@ -11942,34 +11942,34 @@
         <v>12</v>
       </c>
       <c r="L140" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O140" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="M140" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N140" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O140" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="Q140" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S140" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T140" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T140" s="4" t="s">
+      <c r="U140" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="W140" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="X140" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="U140" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="W140" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="X140" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="AD140" s="4" t="s">
         <v>14</v>
@@ -11986,22 +11986,22 @@
         <v>4</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H141" s="4">
         <v>19970619</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J141" s="5" t="s">
         <v>11</v>
@@ -12010,34 +12010,34 @@
         <v>12</v>
       </c>
       <c r="L141" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O141" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="M141" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N141" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O141" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="Q141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S141" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T141" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T141" s="4" t="s">
+      <c r="U141" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="W141" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="X141" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="U141" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="W141" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="X141" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="AD141" s="4" t="s">
         <v>14</v>
@@ -12054,22 +12054,22 @@
         <v>5</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H142" s="4">
         <v>19970619</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>11</v>
@@ -12078,37 +12078,37 @@
         <v>12</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S142" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T142" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T142" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="U142" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W142" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X142" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB142" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD142" s="4" t="s">
         <v>14</v>
@@ -12125,22 +12125,22 @@
         <v>6</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H143" s="4">
         <v>19970619</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J143" s="5" t="s">
         <v>11</v>
@@ -12149,10 +12149,10 @@
         <v>12</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>8</v>
@@ -12161,22 +12161,22 @@
         <v>9</v>
       </c>
       <c r="S143" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T143" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T143" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="U143" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W143" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X143" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB143" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD143" s="4" t="s">
         <v>14</v>
@@ -12193,22 +12193,22 @@
         <v>7</v>
       </c>
       <c r="D144" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="H144" s="4">
         <v>19970619</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J144" s="5" t="s">
         <v>11</v>
@@ -12217,10 +12217,10 @@
         <v>12</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>8</v>
@@ -12229,22 +12229,22 @@
         <v>9</v>
       </c>
       <c r="S144" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T144" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T144" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="U144" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB144" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD144" s="4" t="s">
         <v>14</v>
@@ -12276,7 +12276,7 @@
         <v>19970619</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J145" s="5" t="s">
         <v>11</v>
@@ -12285,10 +12285,10 @@
         <v>12</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>8</v>
@@ -12297,22 +12297,22 @@
         <v>9</v>
       </c>
       <c r="S145" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="T145" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T145" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="U145" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W145" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X145" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB145" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD145" s="4" t="s">
         <v>14</v>
@@ -12329,22 +12329,22 @@
         <v>9</v>
       </c>
       <c r="D146" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="H146" s="4">
         <v>19970619</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J146" s="5" t="s">
         <v>11</v>
@@ -12353,31 +12353,31 @@
         <v>12</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S146" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T146" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U146" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U146" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB146" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD146" s="4" t="s">
         <v>14</v>
@@ -12394,22 +12394,22 @@
         <v>10</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H147" s="4">
         <v>19970619</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J147" s="5" t="s">
         <v>11</v>
@@ -12418,31 +12418,31 @@
         <v>12</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S147" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T147" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U147" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U147" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB147" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD147" s="4" t="s">
         <v>14</v>
@@ -12459,22 +12459,22 @@
         <v>11</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H148" s="4">
         <v>19970619</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J148" s="5" t="s">
         <v>11</v>
@@ -12483,31 +12483,31 @@
         <v>12</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N148" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S148" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T148" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U148" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U148" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB148" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD148" s="4" t="s">
         <v>14</v>
@@ -12524,22 +12524,22 @@
         <v>12</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H149" s="4">
         <v>19970619</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J149" s="5" t="s">
         <v>11</v>
@@ -12548,31 +12548,31 @@
         <v>12</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N149" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q149" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S149" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T149" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U149" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U149" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB149" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD149" s="4" t="s">
         <v>14</v>
@@ -12589,22 +12589,22 @@
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H150" s="4">
         <v>19970619</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J150" s="5" t="s">
         <v>11</v>
@@ -12613,31 +12613,31 @@
         <v>12</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N150" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q150" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S150" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T150" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U150" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U150" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB150" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD150" s="4" t="s">
         <v>14</v>
@@ -12654,22 +12654,22 @@
         <v>2</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H151" s="4">
         <v>19970619</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J151" s="5" t="s">
         <v>11</v>
@@ -12678,31 +12678,31 @@
         <v>12</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N151" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S151" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T151" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U151" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U151" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB151" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD151" s="4" t="s">
         <v>14</v>
@@ -12719,22 +12719,22 @@
         <v>3</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H152" s="4">
         <v>19970619</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J152" s="5" t="s">
         <v>11</v>
@@ -12743,31 +12743,31 @@
         <v>12</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N152" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q152" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S152" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T152" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U152" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U152" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB152" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD152" s="4" t="s">
         <v>14</v>
@@ -12784,22 +12784,22 @@
         <v>4</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H153" s="4">
         <v>19970619</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J153" s="5" t="s">
         <v>11</v>
@@ -12808,31 +12808,31 @@
         <v>12</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N153" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q153" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S153" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T153" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U153" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U153" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB153" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD153" s="4" t="s">
         <v>14</v>
@@ -12849,22 +12849,22 @@
         <v>5</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H154" s="4">
         <v>19970619</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J154" s="5" t="s">
         <v>11</v>
@@ -12873,31 +12873,31 @@
         <v>12</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q154" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S154" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T154" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U154" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U154" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB154" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD154" s="4" t="s">
         <v>14</v>
@@ -12914,22 +12914,22 @@
         <v>6</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H155" s="4">
         <v>19970619</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J155" s="5" t="s">
         <v>11</v>
@@ -12938,34 +12938,34 @@
         <v>12</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q155" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S155" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T155" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U155" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U155" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB155" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC155" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD155" s="4" t="s">
         <v>14</v>
@@ -12982,22 +12982,22 @@
         <v>7</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H156" s="4">
         <v>19970619</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J156" s="5" t="s">
         <v>11</v>
@@ -13006,31 +13006,31 @@
         <v>12</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S156" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T156" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U156" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U156" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB156" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD156" s="4" t="s">
         <v>14</v>
@@ -13047,22 +13047,22 @@
         <v>8</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H157" s="4">
         <v>19970619</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J157" s="5" t="s">
         <v>11</v>
@@ -13071,31 +13071,31 @@
         <v>12</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S157" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T157" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U157" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U157" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB157" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD157" s="4" t="s">
         <v>14</v>
@@ -13112,22 +13112,22 @@
         <v>9</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H158" s="4">
         <v>19970619</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J158" s="5" t="s">
         <v>11</v>
@@ -13136,31 +13136,31 @@
         <v>12</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q158" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S158" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T158" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U158" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U158" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB158" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD158" s="4" t="s">
         <v>14</v>
@@ -13177,22 +13177,22 @@
         <v>10</v>
       </c>
       <c r="D159" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="F159" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H159" s="4">
         <v>19970619</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J159" s="5" t="s">
         <v>11</v>
@@ -13201,31 +13201,31 @@
         <v>12</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q159" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S159" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T159" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U159" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U159" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB159" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD159" s="4" t="s">
         <v>14</v>
@@ -13242,22 +13242,22 @@
         <v>11</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H160" s="4">
         <v>19970619</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J160" s="5" t="s">
         <v>11</v>
@@ -13266,31 +13266,31 @@
         <v>12</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q160" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S160" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T160" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U160" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U160" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB160" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD160" s="4" t="s">
         <v>14</v>
@@ -13307,22 +13307,22 @@
         <v>12</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H161" s="4">
         <v>19970619</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J161" s="5" t="s">
         <v>11</v>
@@ -13331,31 +13331,31 @@
         <v>12</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q161" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S161" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T161" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U161" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U161" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB161" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD161" s="4" t="s">
         <v>14</v>
@@ -13372,22 +13372,22 @@
         <v>13</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H162" s="4">
         <v>19970619</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J162" s="5" t="s">
         <v>11</v>
@@ -13396,31 +13396,31 @@
         <v>12</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O162" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q162" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S162" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T162" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U162" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="U162" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AB162" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD162" s="4" t="s">
         <v>14</v>
@@ -13437,22 +13437,22 @@
         <v>14</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H163" s="4">
         <v>19970619</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J163" s="5" t="s">
         <v>11</v>
@@ -13461,37 +13461,37 @@
         <v>12</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O163" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="P163" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="P163" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="Q163" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S163" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T163" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T163" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U163" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W163" s="4">
         <v>2672</v>
       </c>
       <c r="X163" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD163" s="4" t="s">
         <v>14</v>
@@ -13508,22 +13508,22 @@
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H164" s="4">
         <v>19970619</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J164" s="5" t="s">
         <v>11</v>
@@ -13532,37 +13532,37 @@
         <v>12</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N164" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O164" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="P164" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="P164" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="Q164" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S164" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T164" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T164" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U164" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W164" s="4">
         <v>2672</v>
       </c>
       <c r="X164" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD164" s="4" t="s">
         <v>14</v>
@@ -13579,22 +13579,22 @@
         <v>2</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H165" s="4">
         <v>19970619</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J165" s="5" t="s">
         <v>11</v>
@@ -13603,37 +13603,37 @@
         <v>12</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O165" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="P165" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="P165" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="Q165" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S165" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T165" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T165" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U165" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W165" s="4">
         <v>2672</v>
       </c>
       <c r="X165" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD165" s="4" t="s">
         <v>14</v>
@@ -13650,22 +13650,22 @@
         <v>3</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H166" s="4">
         <v>19970619</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J166" s="5" t="s">
         <v>11</v>
@@ -13674,37 +13674,37 @@
         <v>12</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O166" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="P166" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="P166" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="Q166" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S166" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T166" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T166" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U166" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W166" s="4">
         <v>2672</v>
       </c>
       <c r="X166" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD166" s="4" t="s">
         <v>14</v>
@@ -13721,22 +13721,22 @@
         <v>4</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H167" s="4">
         <v>19970619</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J167" s="5" t="s">
         <v>11</v>
@@ -13745,19 +13745,19 @@
         <v>12</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q167" s="5" t="s">
         <v>9</v>
@@ -13766,19 +13766,19 @@
         <v>70</v>
       </c>
       <c r="S167" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T167" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T167" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U167" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W167" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X167" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD167" s="4" t="s">
         <v>14</v>
@@ -13795,22 +13795,22 @@
         <v>5</v>
       </c>
       <c r="D168" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E168" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="F168" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H168" s="4">
         <v>19970619</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J168" s="5" t="s">
         <v>11</v>
@@ -13819,16 +13819,16 @@
         <v>12</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q168" s="5" t="s">
         <v>9</v>
@@ -13837,13 +13837,13 @@
         <v>70</v>
       </c>
       <c r="S168" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T168" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T168" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U168" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD168" s="4" t="s">
         <v>14</v>
@@ -13860,22 +13860,22 @@
         <v>6</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H169" s="4">
         <v>19970619</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J169" s="5" t="s">
         <v>11</v>
@@ -13884,16 +13884,16 @@
         <v>12</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q169" s="5" t="s">
         <v>9</v>
@@ -13902,13 +13902,13 @@
         <v>70</v>
       </c>
       <c r="S169" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T169" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T169" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U169" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD169" s="4" t="s">
         <v>14</v>
@@ -13925,22 +13925,22 @@
         <v>7</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H170" s="4">
         <v>19970619</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J170" s="5" t="s">
         <v>11</v>
@@ -13949,16 +13949,16 @@
         <v>12</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q170" s="5" t="s">
         <v>9</v>
@@ -13967,13 +13967,13 @@
         <v>70</v>
       </c>
       <c r="S170" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T170" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T170" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U170" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD170" s="4" t="s">
         <v>14</v>
@@ -14005,7 +14005,7 @@
         <v>19970619</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J171" s="5" t="s">
         <v>11</v>
@@ -14014,16 +14014,16 @@
         <v>12</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q171" s="5" t="s">
         <v>9</v>
@@ -14032,13 +14032,13 @@
         <v>70</v>
       </c>
       <c r="S171" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T171" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T171" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U171" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD171" s="4" t="s">
         <v>14</v>
@@ -14070,7 +14070,7 @@
         <v>19970619</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J172" s="5" t="s">
         <v>11</v>
@@ -14079,16 +14079,16 @@
         <v>12</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q172" s="5" t="s">
         <v>9</v>
@@ -14097,13 +14097,13 @@
         <v>70</v>
       </c>
       <c r="S172" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T172" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T172" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U172" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD172" s="4" t="s">
         <v>14</v>
@@ -14120,22 +14120,22 @@
         <v>10</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H173" s="4">
         <v>19970619</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J173" s="5" t="s">
         <v>11</v>
@@ -14144,16 +14144,16 @@
         <v>12</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N173" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q173" s="5" t="s">
         <v>9</v>
@@ -14162,13 +14162,13 @@
         <v>70</v>
       </c>
       <c r="S173" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T173" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T173" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="U173" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD173" s="4" t="s">
         <v>14</v>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C7F4D-1240-E942-B412-A365E3AAF584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4877758-FF1A-A64B-9994-91A71301A19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="408">
   <si>
     <t>genus</t>
   </si>
@@ -3492,6 +3492,213 @@
   </si>
   <si>
     <t>abandoned farm fields ditch</t>
+  </si>
+  <si>
+    <t>Anthoxanthum od</t>
+  </si>
+  <si>
+    <t>Texada Island; west hydro substation on point</t>
+  </si>
+  <si>
+    <t>10U 401810 5493950</t>
+  </si>
+  <si>
+    <t>in hydro cut</t>
+  </si>
+  <si>
+    <t>open hydro cut</t>
+  </si>
+  <si>
+    <t>49 35 25</t>
+  </si>
+  <si>
+    <t>124 21 31</t>
+  </si>
+  <si>
+    <t>Vicia hirsuta; Eriophyllum lanatum</t>
+  </si>
+  <si>
+    <t>2680; 2681</t>
+  </si>
+  <si>
+    <t>Panicum oligosanthes var. shreiberi</t>
+  </si>
+  <si>
+    <t>Panicum oligosanthes scribnerianum</t>
+  </si>
+  <si>
+    <t>Dichanthelium scribnerianum</t>
+  </si>
+  <si>
+    <t>10U 401880 5493990</t>
+  </si>
+  <si>
+    <t>gen hydro cont stuff</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>slope 50 %, exp 220 degrees</t>
+  </si>
+  <si>
+    <t>open hydro cut, shallow earth shelves on rock outcrop</t>
+  </si>
+  <si>
+    <t>49 35 26</t>
+  </si>
+  <si>
+    <t>124 21 27</t>
+  </si>
+  <si>
+    <t>50 35 26</t>
+  </si>
+  <si>
+    <t>125 21 27</t>
+  </si>
+  <si>
+    <t>Rubus ursinus</t>
+  </si>
+  <si>
+    <t>Phleum pratense</t>
+  </si>
+  <si>
+    <t>gen hydro cont stuff, non coll obs</t>
+  </si>
+  <si>
+    <t>Poa compressa</t>
+  </si>
+  <si>
+    <t>2682; 2683; 2684; 2685;  2686; 2687</t>
+  </si>
+  <si>
+    <t>Danthonia californica; Sisyrinchium idahoense macounii; Bromus carinatus; Packera macounii; Danthonia spicata; Asplenium trichomanes</t>
+  </si>
+  <si>
+    <t>Carex rostrata</t>
+  </si>
+  <si>
+    <t>Texada Island; fen on road to west hydro substation</t>
+  </si>
+  <si>
+    <t>10U 399800 5495270</t>
+  </si>
+  <si>
+    <t>48 36 06</t>
+  </si>
+  <si>
+    <t>124 23 12</t>
+  </si>
+  <si>
+    <t>Scutellaria galericulata</t>
+  </si>
+  <si>
+    <t>Carex canescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysichiton </t>
+  </si>
+  <si>
+    <t>Texada Island; northwest point of Blubber Bay</t>
+  </si>
+  <si>
+    <t>Conioselinum pacificum</t>
+  </si>
+  <si>
+    <t>Conioselinum gmelinii</t>
+  </si>
+  <si>
+    <t>Sedum acre</t>
+  </si>
+  <si>
+    <t>fairly widespread escape on limestone at sea edge</t>
+  </si>
+  <si>
+    <t>seaside</t>
+  </si>
+  <si>
+    <t>Cotoneaster horizontalis</t>
+  </si>
+  <si>
+    <t>margins of woods at sea edge</t>
+  </si>
+  <si>
+    <t>slightly I woods at sea edge</t>
+  </si>
+  <si>
+    <t>widespread</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>Senecio macounii</t>
+  </si>
+  <si>
+    <t>Packera macounii</t>
+  </si>
+  <si>
+    <t>approx 200 sterile, sample taken to compare</t>
+  </si>
+  <si>
+    <t>Campanula biennis</t>
+  </si>
+  <si>
+    <t>road median</t>
+  </si>
+  <si>
+    <t>here and there</t>
+  </si>
+  <si>
+    <t>Campanula medium</t>
+  </si>
+  <si>
+    <t>10U 384440 5517680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 48 02 </t>
+  </si>
+  <si>
+    <t>124 30 21</t>
+  </si>
+  <si>
+    <t>Texada Island; [Guillse]? Point</t>
+  </si>
+  <si>
+    <t>Lycopus americanus</t>
+  </si>
+  <si>
+    <t>2710A, 2710B, 2711, 2712, 2713</t>
+  </si>
+  <si>
+    <t>Sisyrinchium idahoense, Erigeron philadelphicus, Sisyrinchium californicum, Euphrasia nemorosa, Hypericum scouleri</t>
+  </si>
+  <si>
+    <t>2714A</t>
+  </si>
+  <si>
+    <t>slopes of quarry</t>
+  </si>
+  <si>
+    <t>dist slopes quarry</t>
+  </si>
+  <si>
+    <t>Pseudotsuga menziesii</t>
+  </si>
+  <si>
+    <t>Pseudotsuga m.</t>
+  </si>
+  <si>
+    <t>Hypochaeris radicata</t>
+  </si>
+  <si>
+    <t>Bromus tectorum</t>
+  </si>
+  <si>
+    <t>Achillea m</t>
+  </si>
+  <si>
+    <t>Prunella v</t>
   </si>
 </sst>
 </file>
@@ -3985,12 +4192,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AF173"/>
+  <dimension ref="A1:AF199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="T166" sqref="T166"/>
+      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13619,6 +13826,1566 @@
         <v>14</v>
       </c>
     </row>
+    <row r="174" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>12</v>
+      </c>
+      <c r="B174" s="4">
+        <v>11</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G174" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O174" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="P174" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q174" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="R174" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="S174" s="5"/>
+      <c r="U174" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="V174" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="W174" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD174" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>12</v>
+      </c>
+      <c r="B175" s="4">
+        <v>12</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G175" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M175" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N175" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O175" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="P175" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q175" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="R175" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="S175" s="5"/>
+      <c r="U175" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="V175" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="W175" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD175" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="85" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>13</v>
+      </c>
+      <c r="B176" s="4">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G176" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O176" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P176" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q176" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="R176" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T176" s="4">
+        <v>40</v>
+      </c>
+      <c r="U176" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V176" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="W176" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z176" s="4">
+        <v>70</v>
+      </c>
+      <c r="AA176" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB176" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>13</v>
+      </c>
+      <c r="B177" s="4">
+        <v>2</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G177" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M177" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P177" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q177" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="R177" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T177" s="4">
+        <v>40</v>
+      </c>
+      <c r="U177" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V177" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W177" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB177" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>13</v>
+      </c>
+      <c r="B178" s="4">
+        <v>3</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G178" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O178" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P178" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="R178" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T178" s="4">
+        <v>40</v>
+      </c>
+      <c r="U178" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V178" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W178" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB178" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>13</v>
+      </c>
+      <c r="B179" s="4">
+        <v>4</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G179" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M179" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N179" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O179" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P179" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="R179" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T179" s="4">
+        <v>40</v>
+      </c>
+      <c r="U179" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V179" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W179" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB179" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>13</v>
+      </c>
+      <c r="B180" s="4">
+        <v>5</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G180" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O180" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P180" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q180" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="R180" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T180" s="4">
+        <v>40</v>
+      </c>
+      <c r="U180" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V180" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W180" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB180" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>13</v>
+      </c>
+      <c r="B181" s="4">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G181" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M181" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N181" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O181" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P181" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q181" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="R181" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T181" s="4">
+        <v>40</v>
+      </c>
+      <c r="U181" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V181" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W181" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB181" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>13</v>
+      </c>
+      <c r="B182" s="4">
+        <v>7</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G182" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O182" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P182" s="4">
+        <v>2690</v>
+      </c>
+      <c r="Q182" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="U182" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="V182" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="W182" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>13</v>
+      </c>
+      <c r="B183" s="4">
+        <v>8</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G183" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M183" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N183" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O183" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P183" s="4">
+        <v>2690</v>
+      </c>
+      <c r="Q183" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="U183" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="V183" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="W183" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>13</v>
+      </c>
+      <c r="B184" s="4">
+        <v>9</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G184" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O184" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P184" s="4">
+        <v>2690</v>
+      </c>
+      <c r="Q184" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="U184" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="V184" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="W184" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>13</v>
+      </c>
+      <c r="B185" s="4">
+        <v>10</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G185" s="4">
+        <v>19970619</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N185" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O185" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P185" s="4">
+        <v>2690</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="U185" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="V185" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="W185" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>15</v>
+      </c>
+      <c r="B186" s="4">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G186" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>15</v>
+      </c>
+      <c r="B187" s="4">
+        <v>2</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G187" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M187" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N187" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>15</v>
+      </c>
+      <c r="B188" s="4">
+        <v>3</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G188" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O188" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z188" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA188" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB188" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>15</v>
+      </c>
+      <c r="B189" s="4">
+        <v>4</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G189" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J189" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O189" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z189" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA189" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB189" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>15</v>
+      </c>
+      <c r="B190" s="4">
+        <v>5</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G190" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z190" s="4">
+        <v>200</v>
+      </c>
+      <c r="AA190" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB190" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>15</v>
+      </c>
+      <c r="B191" s="4">
+        <v>6</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G191" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M191" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N191" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O191" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB191" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>15</v>
+      </c>
+      <c r="B192" s="4">
+        <v>7</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G192" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P192" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="U192" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V192" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W192" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB192" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>15</v>
+      </c>
+      <c r="B193" s="4">
+        <v>8</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G193" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J193" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M193" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N193" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O193" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P193" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q193" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U193" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V193" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W193" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB193" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>15</v>
+      </c>
+      <c r="B194" s="4">
+        <v>9</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G194" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O194" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P194" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q194" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U194" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V194" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W194" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB194" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>15</v>
+      </c>
+      <c r="B195" s="4">
+        <v>10</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G195" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M195" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N195" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P195" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U195" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V195" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W195" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB195" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>15</v>
+      </c>
+      <c r="B196" s="4">
+        <v>11</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G196" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O196" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P196" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U196" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V196" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W196" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB196" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>15</v>
+      </c>
+      <c r="B197" s="4">
+        <v>12</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G197" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M197" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N197" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O197" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U197" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V197" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W197" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB197" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>15</v>
+      </c>
+      <c r="B198" s="4">
+        <v>13</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G198" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O198" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P198" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U198" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V198" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W198" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB198" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>15</v>
+      </c>
+      <c r="B199" s="4">
+        <v>14</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G199" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M199" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O199" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P199" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U199" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="V199" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="W199" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB199" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4877758-FF1A-A64B-9994-91A71301A19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF874A5-1EBD-BB49-859D-F45EC00BC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="411">
   <si>
     <t>genus</t>
   </si>
@@ -2795,9 +2795,6 @@
     <t>Juncus ensifolius</t>
   </si>
   <si>
-    <t>Carex acuta|Rhynchospora alba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Occycoeus o. </t>
   </si>
   <si>
@@ -2927,9 +2924,6 @@
     <t>Nuphar p</t>
   </si>
   <si>
-    <t>Potamogeton obtusifolius | Carex acuta | Ranunculus aquatilis | Callitriche</t>
-  </si>
-  <si>
     <t>Lycopus d</t>
   </si>
   <si>
@@ -3035,9 +3029,6 @@
     <t>124 28 08</t>
   </si>
   <si>
-    <t>Myosurus minimus | Hordeum brachyantherum | Festuca rubra | Daucus pusillus | Sedum oreganum | Allium amplectens</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grindelia int </t>
   </si>
   <si>
@@ -3050,12 +3041,6 @@
     <t xml:space="preserve">part edge of rocky tide line </t>
   </si>
   <si>
-    <t xml:space="preserve">Plantago elongata | Brodia coronaria | Silene antirrhina | Vulpia myuros | Vulpia microstachys | Trifolium willdenovii | Trifolium microcephalum | Geranium carolinianum | Madia madioides | Madia gracilis | Dichanthelium scribnerianum | Bromus tectorum </t>
-  </si>
-  <si>
-    <t>Madia madioides | Epilobium minutum | Sedum lanceolatum nesioticum | Polygonum spergulariiforme</t>
-  </si>
-  <si>
     <t>Fragaria virginiana</t>
   </si>
   <si>
@@ -3077,9 +3062,6 @@
     <t>124 28 12</t>
   </si>
   <si>
-    <t xml:space="preserve">Agrostis exarata | Vaccinium ovatum | Cotoneaster | Lepidium virginicum </t>
-  </si>
-  <si>
     <t>Veronica scutellata</t>
   </si>
   <si>
@@ -3092,9 +3074,6 @@
     <t>Festuca rub</t>
   </si>
   <si>
-    <t xml:space="preserve">Spergularia marina | Aphyllon californicum </t>
-  </si>
-  <si>
     <t>Eriophyllum lanatum</t>
   </si>
   <si>
@@ -3224,9 +3203,6 @@
     <t xml:space="preserve">elevation 70 m, aspect 210 degrees, slope 10% </t>
   </si>
   <si>
-    <t>Danthonia californica | Carex feta | Bromus inermis | Carex pachystachya | Juncus tenuis | Danthonia spicata | Epilobium ciliatum ciliatum</t>
-  </si>
-  <si>
     <t>oak woods</t>
   </si>
   <si>
@@ -3251,117 +3227,12 @@
     <t>2634, 2635</t>
   </si>
   <si>
-    <t>2634, 2636</t>
-  </si>
-  <si>
-    <t>2634, 2637</t>
-  </si>
-  <si>
-    <t>2634, 2638</t>
-  </si>
-  <si>
-    <t>2634, 2639</t>
-  </si>
-  <si>
-    <t>2634, 2640</t>
-  </si>
-  <si>
-    <t>2634, 2641</t>
-  </si>
-  <si>
-    <t>2634, 2642</t>
-  </si>
-  <si>
-    <t>2634, 2643</t>
-  </si>
-  <si>
-    <t>2634, 2644</t>
-  </si>
-  <si>
-    <t>2634, 2645</t>
-  </si>
-  <si>
-    <t>2634, 2646</t>
-  </si>
-  <si>
-    <t>2634, 2647</t>
-  </si>
-  <si>
-    <t>2634, 2648</t>
-  </si>
-  <si>
-    <t>2634, 2649</t>
-  </si>
-  <si>
-    <t>2634, 2650</t>
-  </si>
-  <si>
-    <t>2634, 2651</t>
-  </si>
-  <si>
     <t>2637, 2638, 2640, 2641</t>
   </si>
   <si>
-    <t>2637, 2638, 2640, 2642</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2643</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2644</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2645</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2646</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2647</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2648</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2649</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2650</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2651</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2652</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2653</t>
-  </si>
-  <si>
-    <t>2637, 2638, 2640, 2654</t>
-  </si>
-  <si>
     <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2649</t>
   </si>
   <si>
-    <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2650</t>
-  </si>
-  <si>
-    <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2651</t>
-  </si>
-  <si>
-    <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2652</t>
-  </si>
-  <si>
-    <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2653</t>
-  </si>
-  <si>
-    <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2654</t>
-  </si>
-  <si>
-    <t>2643, 2644, 2645, 2646, 2647, 2648, 2655, 2655</t>
-  </si>
-  <si>
     <t xml:space="preserve">2651, 2652, 2653, 2654, 2655, 2656, 2657, 2658, 2659A, 2659B </t>
   </si>
   <si>
@@ -3515,12 +3386,6 @@
     <t>124 21 31</t>
   </si>
   <si>
-    <t>Vicia hirsuta; Eriophyllum lanatum</t>
-  </si>
-  <si>
-    <t>2680; 2681</t>
-  </si>
-  <si>
     <t>Panicum oligosanthes var. shreiberi</t>
   </si>
   <si>
@@ -3569,12 +3434,6 @@
     <t>Poa compressa</t>
   </si>
   <si>
-    <t>2682; 2683; 2684; 2685;  2686; 2687</t>
-  </si>
-  <si>
-    <t>Danthonia californica; Sisyrinchium idahoense macounii; Bromus carinatus; Packera macounii; Danthonia spicata; Asplenium trichomanes</t>
-  </si>
-  <si>
     <t>Carex rostrata</t>
   </si>
   <si>
@@ -3699,6 +3558,156 @@
   </si>
   <si>
     <t>Prunella v</t>
+  </si>
+  <si>
+    <t>Carex acuta, Rhynchospora alba</t>
+  </si>
+  <si>
+    <t>Potamogeton obtusifolius, Carex acuta, Ranunculus aquatilis, Callitriche</t>
+  </si>
+  <si>
+    <t>Myosurus minimus, Hordeum brachyantherum, Festuca rubra,  Daucus pusillus, Sedum oreganum,  Allium amplectens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantago elongata, Brodia coronaria, Silene antirrhina, Vulpia myuros,  Vulpia microstachys, Trifolium willdenovii, Trifolium microcephalum, Geranium carolinianum, Madia madioides,  Madia gracilis, Dichanthelium scribnerianum, Bromus tectorum </t>
+  </si>
+  <si>
+    <t>Madia madioides, Epilobium minutum, Sedum lanceolatum nesioticum, Polygonum spergulariiforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrostis exarata, Vaccinium ovatum, Cotoneaster, Lepidium virginicum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spergularia marina, Aphyllon californicum </t>
+  </si>
+  <si>
+    <t>Danthonia californica, Carex feta, Bromus inermis, Carex pachystachya, Juncus tenuis, Danthonia spicata, Epilobium ciliatum ciliatum</t>
+  </si>
+  <si>
+    <t>Vicia hirsuta, Eriophyllum lanatum</t>
+  </si>
+  <si>
+    <t>2680, 2681</t>
+  </si>
+  <si>
+    <t>Danthonia californica, Sisyrinchium idahoense macounii, Bromus carinatus, Packera macounii, Danthonia spicata, Asplenium trichomanes</t>
+  </si>
+  <si>
+    <t>2682, 2683, 2684, 2685,  2686, 2687</t>
+  </si>
+  <si>
+    <t>limestone cliff in quarry</t>
+  </si>
+  <si>
+    <t>2714B, 2715</t>
+  </si>
+  <si>
+    <t>Centaurea diffusa, Toxicodendron diversilobum</t>
+  </si>
+  <si>
+    <t>Cw</t>
+  </si>
+  <si>
+    <t>Tsuga heterophylla</t>
+  </si>
+  <si>
+    <t>Arbutus</t>
+  </si>
+  <si>
+    <t>Lonicera hispidula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspect 304 degrees, slope vertical </t>
+  </si>
+  <si>
+    <t>10U 383940 5517660</t>
+  </si>
+  <si>
+    <t>49 48 01</t>
+  </si>
+  <si>
+    <t>124 36 46</t>
+  </si>
+  <si>
+    <t>associates</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>output of area</t>
+  </si>
+  <si>
+    <t>Cichorium intybus</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>Tragopogon dubius</t>
+  </si>
+  <si>
+    <t>Tropagon sp. dubius</t>
+  </si>
+  <si>
+    <t>Melilotus albus</t>
+  </si>
+  <si>
+    <t>Melilotus alba</t>
+  </si>
+  <si>
+    <t>Texada Island; [Vananda]?</t>
+  </si>
+  <si>
+    <t>at dock</t>
+  </si>
+  <si>
+    <t>additional approx 200 plants</t>
+  </si>
+  <si>
+    <t>10U 388130 5512970</t>
+  </si>
+  <si>
+    <t>49 45 32</t>
+  </si>
+  <si>
+    <t>124 33 12</t>
+  </si>
+  <si>
+    <t>Centaurea pratensis</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest behind ball field </t>
+  </si>
+  <si>
+    <t>Picea sitchensis</t>
+  </si>
+  <si>
+    <t>Oplopanax horridus</t>
+  </si>
+  <si>
+    <t>Lysichiton</t>
+  </si>
+  <si>
+    <t>Lysichiton americanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polystichum </t>
+  </si>
+  <si>
+    <t>Athyrium filix-femina</t>
+  </si>
+  <si>
+    <t>Dryopteris expansa</t>
+  </si>
+  <si>
+    <t>Dryopteris austriaca crossed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texada Island; Gillies Bay; forest behind ball field </t>
   </si>
 </sst>
 </file>
@@ -4192,12 +4201,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AF199"/>
+  <dimension ref="A1:AF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
+      <selection pane="bottomLeft" activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4239,40 +4248,40 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>24</v>
@@ -4284,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>2</v>
@@ -4296,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>5</v>
@@ -4308,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>94</v>
@@ -4323,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>89</v>
@@ -4358,7 +4367,7 @@
         <v>19960925</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
@@ -4408,7 +4417,7 @@
         <v>19960925</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
@@ -4458,7 +4467,7 @@
         <v>19960925</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>11</v>
@@ -4508,7 +4517,7 @@
         <v>19960925</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>11</v>
@@ -4558,7 +4567,7 @@
         <v>19960925</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -4608,7 +4617,7 @@
         <v>19960925</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -4649,7 +4658,7 @@
         <v>19960925</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
@@ -4702,7 +4711,7 @@
         <v>19960925</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>11</v>
@@ -4752,7 +4761,7 @@
         <v>19960925</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>11</v>
@@ -4802,7 +4811,7 @@
         <v>19960925</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>11</v>
@@ -4852,7 +4861,7 @@
         <v>19960925</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>11</v>
@@ -4902,7 +4911,7 @@
         <v>19960925</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>11</v>
@@ -4952,7 +4961,7 @@
         <v>19960925</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>11</v>
@@ -5002,7 +5011,7 @@
         <v>19960925</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>11</v>
@@ -5052,7 +5061,7 @@
         <v>19960925</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
@@ -5102,7 +5111,7 @@
         <v>19960925</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>11</v>
@@ -5155,7 +5164,7 @@
         <v>19960925</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>11</v>
@@ -5208,7 +5217,7 @@
         <v>19960925</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>11</v>
@@ -5261,7 +5270,7 @@
         <v>19960925</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>11</v>
@@ -5311,7 +5320,7 @@
         <v>19960925</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
@@ -5364,7 +5373,7 @@
         <v>19960925</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>11</v>
@@ -5420,7 +5429,7 @@
         <v>19960925</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>11</v>
@@ -5476,7 +5485,7 @@
         <v>19960925</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>11</v>
@@ -5523,7 +5532,7 @@
         <v>19960925</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>11</v>
@@ -5550,7 +5559,7 @@
         <v>14</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -5576,7 +5585,7 @@
         <v>19960925</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
@@ -5626,7 +5635,7 @@
         <v>19960925</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>11</v>
@@ -5676,7 +5685,7 @@
         <v>19960925</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>11</v>
@@ -5726,7 +5735,7 @@
         <v>19960925</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -5776,7 +5785,7 @@
         <v>19960925</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>11</v>
@@ -5829,7 +5838,7 @@
         <v>19960925</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>11</v>
@@ -5882,7 +5891,7 @@
         <v>19960925</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>11</v>
@@ -5933,7 +5942,7 @@
         <v>19960925</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>11</v>
@@ -5980,7 +5989,7 @@
         <v>19960925</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>11</v>
@@ -6007,7 +6016,7 @@
         <v>14</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6033,7 +6042,7 @@
         <v>19960925</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>11</v>
@@ -6084,7 +6093,7 @@
         <v>19960925</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>11</v>
@@ -6134,7 +6143,7 @@
         <v>19960925</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>11</v>
@@ -6176,7 +6185,7 @@
         <v>19960925</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>11</v>
@@ -6229,7 +6238,7 @@
         <v>19960925</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>11</v>
@@ -6279,7 +6288,7 @@
         <v>19960925</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>11</v>
@@ -6329,7 +6338,7 @@
         <v>19960925</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>11</v>
@@ -6379,7 +6388,7 @@
         <v>19960925</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>11</v>
@@ -6429,7 +6438,7 @@
         <v>19960925</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
@@ -6479,7 +6488,7 @@
         <v>19960925</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>11</v>
@@ -6529,7 +6538,7 @@
         <v>19961030</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>11</v>
@@ -6547,7 +6556,7 @@
         <v>8</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>85</v>
@@ -6582,7 +6591,7 @@
         <v>19961030</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>11</v>
@@ -6600,10 +6609,10 @@
         <v>8</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="Y46" s="4">
         <v>3</v>
@@ -6638,7 +6647,7 @@
         <v>19961030</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>11</v>
@@ -6656,10 +6665,10 @@
         <v>8</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>9</v>
@@ -6694,7 +6703,7 @@
         <v>19961030</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>11</v>
@@ -6712,10 +6721,10 @@
         <v>8</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>9</v>
@@ -6747,7 +6756,7 @@
         <v>19961030</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>11</v>
@@ -6765,10 +6774,10 @@
         <v>8</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>9</v>
@@ -6803,7 +6812,7 @@
         <v>19961030</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>11</v>
@@ -6821,10 +6830,10 @@
         <v>8</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>9</v>
@@ -6859,7 +6868,7 @@
         <v>19961030</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>11</v>
@@ -6877,10 +6886,10 @@
         <v>8</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S51" s="4" t="s">
         <v>9</v>
@@ -6915,7 +6924,7 @@
         <v>19961030</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>11</v>
@@ -6933,10 +6942,10 @@
         <v>8</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>9</v>
@@ -6971,7 +6980,7 @@
         <v>19961030</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>11</v>
@@ -6989,10 +6998,10 @@
         <v>8</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>9</v>
@@ -7027,7 +7036,7 @@
         <v>19961030</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>11</v>
@@ -7045,10 +7054,10 @@
         <v>8</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>9</v>
@@ -7083,7 +7092,7 @@
         <v>19961030</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>11</v>
@@ -7101,10 +7110,10 @@
         <v>8</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S55" s="4" t="s">
         <v>9</v>
@@ -7139,7 +7148,7 @@
         <v>19961030</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>11</v>
@@ -7157,10 +7166,10 @@
         <v>8</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S56" s="4" t="s">
         <v>9</v>
@@ -7195,7 +7204,7 @@
         <v>19961030</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>11</v>
@@ -7213,10 +7222,10 @@
         <v>8</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S57" s="4" t="s">
         <v>9</v>
@@ -7251,7 +7260,7 @@
         <v>19961030</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>11</v>
@@ -7269,10 +7278,10 @@
         <v>8</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>9</v>
@@ -7307,7 +7316,7 @@
         <v>19961030</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>11</v>
@@ -7325,10 +7334,10 @@
         <v>8</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S59" s="4" t="s">
         <v>9</v>
@@ -7348,13 +7357,13 @@
         <v>14</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G60" s="4">
         <v>19961030</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>11</v>
@@ -7369,10 +7378,10 @@
         <v>13</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="Y60" s="4">
         <v>4</v>
@@ -7381,7 +7390,7 @@
         <v>14</v>
       </c>
       <c r="AF60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7392,13 +7401,13 @@
         <v>15</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G61" s="4">
         <v>19961030</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>11</v>
@@ -7416,10 +7425,10 @@
         <v>8</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S61" s="4" t="s">
         <v>9</v>
@@ -7431,7 +7440,7 @@
         <v>14</v>
       </c>
       <c r="AF61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7442,22 +7451,22 @@
         <v>16</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G62" s="4">
         <v>19961030</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>11</v>
@@ -7475,10 +7484,10 @@
         <v>8</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>9</v>
@@ -7498,13 +7507,13 @@
         <v>17</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G63" s="4">
         <v>19961030</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>11</v>
@@ -7531,7 +7540,7 @@
         <v>14</v>
       </c>
       <c r="AF63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7551,7 +7560,7 @@
         <v>19961030</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>11</v>
@@ -7569,7 +7578,7 @@
         <v>8</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S64" s="4" t="s">
         <v>9</v>
@@ -7578,7 +7587,7 @@
         <v>14</v>
       </c>
       <c r="AF64" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="34" x14ac:dyDescent="0.2">
@@ -7589,22 +7598,22 @@
         <v>19</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" s="4">
         <v>19961030</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>11</v>
@@ -7622,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S65" s="4" t="s">
         <v>9</v>
@@ -7654,7 +7663,7 @@
         <v>19961030</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>11</v>
@@ -7672,7 +7681,7 @@
         <v>8</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S66" s="4" t="s">
         <v>9</v>
@@ -7704,7 +7713,7 @@
         <v>19961030</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>11</v>
@@ -7722,7 +7731,7 @@
         <v>8</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S67" s="4" t="s">
         <v>9</v>
@@ -7742,22 +7751,22 @@
         <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="5">
         <v>19961030</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>11</v>
@@ -7775,7 +7784,7 @@
         <v>8</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S68" s="5" t="s">
         <v>9</v>
@@ -7795,22 +7804,22 @@
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G69" s="5">
         <v>19961030</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>11</v>
@@ -7828,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>9</v>
@@ -7848,22 +7857,22 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G70" s="5">
         <v>19961030</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>11</v>
@@ -7881,7 +7890,7 @@
         <v>8</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S70" s="5" t="s">
         <v>9</v>
@@ -7913,7 +7922,7 @@
         <v>19961030</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>11</v>
@@ -7931,13 +7940,13 @@
         <v>8</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P71" s="4">
         <v>2636</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S71" s="5" t="s">
         <v>9</v>
@@ -7972,7 +7981,7 @@
         <v>19961030</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>11</v>
@@ -7990,13 +7999,13 @@
         <v>8</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P72" s="4">
         <v>2636</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S72" s="5" t="s">
         <v>9</v>
@@ -8031,7 +8040,7 @@
         <v>19961030</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>11</v>
@@ -8049,13 +8058,13 @@
         <v>8</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P73" s="4">
         <v>2636</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S73" s="5" t="s">
         <v>9</v>
@@ -8087,7 +8096,7 @@
         <v>19961030</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>11</v>
@@ -8105,13 +8114,13 @@
         <v>8</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P74" s="4">
         <v>2636</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S74" s="5" t="s">
         <v>9</v>
@@ -8128,22 +8137,22 @@
         <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G75" s="5">
         <v>19961030</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>11</v>
@@ -8161,13 +8170,13 @@
         <v>8</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P75" s="4">
         <v>2636</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S75" s="5" t="s">
         <v>9</v>
@@ -8199,7 +8208,7 @@
         <v>19961030</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>11</v>
@@ -8217,13 +8226,13 @@
         <v>8</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P76" s="4">
         <v>2636</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S76" s="5" t="s">
         <v>9</v>
@@ -8240,13 +8249,13 @@
         <v>11</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>41</v>
@@ -8255,7 +8264,7 @@
         <v>19961030</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>11</v>
@@ -8273,13 +8282,13 @@
         <v>8</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P77" s="4">
         <v>2636</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S77" s="5" t="s">
         <v>9</v>
@@ -8296,22 +8305,22 @@
         <v>12</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G78" s="5">
         <v>19961030</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>11</v>
@@ -8329,7 +8338,7 @@
         <v>8</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S78" s="5" t="s">
         <v>9</v>
@@ -8346,22 +8355,22 @@
         <v>13</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" s="5">
         <v>19961030</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>11</v>
@@ -8379,7 +8388,7 @@
         <v>8</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S79" s="5" t="s">
         <v>9</v>
@@ -8396,22 +8405,22 @@
         <v>14</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G80" s="5">
         <v>19961030</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>11</v>
@@ -8429,7 +8438,7 @@
         <v>8</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S80" s="5" t="s">
         <v>9</v>
@@ -8446,13 +8455,13 @@
         <v>15</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81" s="5">
         <v>19961030</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>11</v>
@@ -8470,14 +8479,14 @@
         <v>8</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S81" s="5"/>
       <c r="AD81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF81" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8488,22 +8497,22 @@
         <v>16</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G82" s="5">
         <v>19961030</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>11</v>
@@ -8521,7 +8530,7 @@
         <v>8</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S82" s="5" t="s">
         <v>9</v>
@@ -8538,22 +8547,22 @@
         <v>17</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="E83" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G83" s="5">
         <v>19961030</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>11</v>
@@ -8571,7 +8580,7 @@
         <v>8</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S83" s="5" t="s">
         <v>9</v>
@@ -8588,7 +8597,7 @@
         <v>18</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>99</v>
@@ -8603,7 +8612,7 @@
         <v>19961030</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>11</v>
@@ -8621,7 +8630,7 @@
         <v>8</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S84" s="5" t="s">
         <v>9</v>
@@ -8638,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>47</v>
@@ -8653,7 +8662,7 @@
         <v>19961030</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>11</v>
@@ -8671,7 +8680,7 @@
         <v>8</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S85" s="5" t="s">
         <v>9</v>
@@ -8683,7 +8692,7 @@
         <v>14</v>
       </c>
       <c r="AF85" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8694,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>99</v>
@@ -8709,7 +8718,7 @@
         <v>19961030</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>11</v>
@@ -8727,7 +8736,7 @@
         <v>8</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S86" s="5" t="s">
         <v>9</v>
@@ -8744,22 +8753,22 @@
         <v>3</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G87" s="5">
         <v>19961030</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>11</v>
@@ -8777,7 +8786,7 @@
         <v>8</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S87" s="5" t="s">
         <v>9</v>
@@ -8786,7 +8795,7 @@
         <v>14</v>
       </c>
       <c r="AF87" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8797,7 +8806,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>65</v>
@@ -8812,7 +8821,7 @@
         <v>19961030</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>11</v>
@@ -8830,7 +8839,7 @@
         <v>8</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S88" s="5" t="s">
         <v>9</v>
@@ -8862,7 +8871,7 @@
         <v>19961030</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>11</v>
@@ -8881,7 +8890,7 @@
         <v>8</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S89" s="5" t="s">
         <v>9</v>
@@ -8898,7 +8907,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>18</v>
@@ -8907,7 +8916,7 @@
         <v>19961030</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>11</v>
@@ -8925,7 +8934,7 @@
         <v>8</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S90" s="4" t="s">
         <v>0</v>
@@ -8942,22 +8951,22 @@
         <v>7</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" s="5">
         <v>19961030</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>11</v>
@@ -9004,7 +9013,7 @@
         <v>19961030</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>11</v>
@@ -9036,22 +9045,22 @@
         <v>9</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93" s="5">
         <v>19961030</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>11</v>
@@ -9083,7 +9092,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>41</v>
@@ -9098,7 +9107,7 @@
         <v>19961030</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>11</v>
@@ -9116,10 +9125,10 @@
         <v>8</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S94" s="5" t="s">
         <v>9</v>
@@ -9136,22 +9145,22 @@
         <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G95" s="5">
         <v>19961030</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>11</v>
@@ -9169,10 +9178,10 @@
         <v>8</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S95" s="5" t="s">
         <v>9</v>
@@ -9189,7 +9198,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>99</v>
@@ -9204,7 +9213,7 @@
         <v>19961030</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>11</v>
@@ -9222,10 +9231,10 @@
         <v>8</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>9</v>
@@ -9257,7 +9266,7 @@
         <v>19961030</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>11</v>
@@ -9275,10 +9284,10 @@
         <v>8</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>9</v>
@@ -9295,7 +9304,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>45</v>
@@ -9310,7 +9319,7 @@
         <v>19961030</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>11</v>
@@ -9328,10 +9337,10 @@
         <v>8</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>9</v>
@@ -9348,22 +9357,22 @@
         <v>15</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G99" s="5">
         <v>19961030</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>11</v>
@@ -9381,10 +9390,10 @@
         <v>8</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>9</v>
@@ -9401,16 +9410,16 @@
         <v>16</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G100" s="5">
         <v>19961030</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>11</v>
@@ -9428,10 +9437,10 @@
         <v>8</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S100" s="4" t="s">
         <v>0</v>
@@ -9440,7 +9449,7 @@
         <v>14</v>
       </c>
       <c r="AF100" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -9451,13 +9460,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G101" s="5">
         <v>19961030</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>11</v>
@@ -9472,16 +9481,16 @@
         <v>13</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="AD101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF101" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -9507,7 +9516,7 @@
         <v>19961030</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>11</v>
@@ -9525,10 +9534,10 @@
         <v>8</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S102" s="5" t="s">
         <v>9</v>
@@ -9560,7 +9569,7 @@
         <v>19961030</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>11</v>
@@ -9578,10 +9587,10 @@
         <v>8</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S103" s="5" t="s">
         <v>9</v>
@@ -9613,7 +9622,7 @@
         <v>19961030</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>11</v>
@@ -9631,10 +9640,10 @@
         <v>8</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S104" s="4" t="s">
         <v>9</v>
@@ -9651,22 +9660,22 @@
         <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G105" s="5">
         <v>19961030</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>11</v>
@@ -9684,10 +9693,10 @@
         <v>8</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>9</v>
@@ -9704,22 +9713,22 @@
         <v>3</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G106" s="5">
         <v>19961030</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>11</v>
@@ -9737,10 +9746,10 @@
         <v>8</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>9</v>
@@ -9772,7 +9781,7 @@
         <v>19961030</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>11</v>
@@ -9790,10 +9799,10 @@
         <v>8</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>9</v>
@@ -9825,7 +9834,7 @@
         <v>19961030</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>11</v>
@@ -9843,7 +9852,7 @@
         <v>8</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S108" s="5" t="s">
         <v>9</v>
@@ -9875,7 +9884,7 @@
         <v>19961030</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>11</v>
@@ -9893,7 +9902,7 @@
         <v>8</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S109" s="5" t="s">
         <v>9</v>
@@ -9910,7 +9919,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>61</v>
@@ -9925,7 +9934,7 @@
         <v>19961030</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>11</v>
@@ -9943,7 +9952,7 @@
         <v>8</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>9</v>
@@ -9966,7 +9975,7 @@
         <v>19961030</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>11</v>
@@ -9984,7 +9993,7 @@
         <v>8</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>9</v>
@@ -10004,22 +10013,22 @@
         <v>9</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G112" s="5">
         <v>19961030</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>11</v>
@@ -10037,7 +10046,7 @@
         <v>8</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>9</v>
@@ -10046,7 +10055,7 @@
         <v>14</v>
       </c>
       <c r="AF112" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="34" x14ac:dyDescent="0.2">
@@ -10057,7 +10066,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>47</v>
@@ -10072,7 +10081,7 @@
         <v>19961030</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>11</v>
@@ -10090,7 +10099,7 @@
         <v>8</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S113" s="5" t="s">
         <v>9</v>
@@ -10107,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>35</v>
@@ -10122,7 +10131,7 @@
         <v>19961030</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>11</v>
@@ -10140,7 +10149,7 @@
         <v>8</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S114" s="5" t="s">
         <v>9</v>
@@ -10157,22 +10166,22 @@
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G115" s="5">
         <v>19961030</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>11</v>
@@ -10190,7 +10199,7 @@
         <v>8</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S115" s="5" t="s">
         <v>9</v>
@@ -10207,22 +10216,22 @@
         <v>13</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G116" s="5">
         <v>19961030</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>11</v>
@@ -10240,7 +10249,7 @@
         <v>8</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S116" s="4" t="s">
         <v>0</v>
@@ -10249,7 +10258,7 @@
         <v>5</v>
       </c>
       <c r="AB116" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD116" s="4" t="s">
         <v>14</v>
@@ -10263,7 +10272,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>41</v>
@@ -10278,7 +10287,7 @@
         <v>19961030</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>11</v>
@@ -10296,7 +10305,7 @@
         <v>8</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>9</v>
@@ -10313,22 +10322,22 @@
         <v>15</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G118" s="5">
         <v>19961030</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>11</v>
@@ -10346,13 +10355,13 @@
         <v>8</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB118" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD118" s="4" t="s">
         <v>14</v>
@@ -10381,7 +10390,7 @@
         <v>19961030</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>11</v>
@@ -10399,7 +10408,7 @@
         <v>8</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S119" s="5" t="s">
         <v>9</v>
@@ -10416,7 +10425,7 @@
         <v>17</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>35</v>
@@ -10431,7 +10440,7 @@
         <v>19961030</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>11</v>
@@ -10449,7 +10458,7 @@
         <v>8</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S120" s="5" t="s">
         <v>9</v>
@@ -10481,7 +10490,7 @@
         <v>19961030</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>11</v>
@@ -10499,7 +10508,7 @@
         <v>8</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>0</v>
@@ -10531,7 +10540,7 @@
         <v>19961030</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>11</v>
@@ -10550,7 +10559,7 @@
         <v>8</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S122" s="5" t="s">
         <v>0</v>
@@ -10567,22 +10576,22 @@
         <v>20</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G123" s="5">
         <v>19961030</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>11</v>
@@ -10600,7 +10609,7 @@
         <v>8</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S123" s="5" t="s">
         <v>0</v>
@@ -10617,22 +10626,22 @@
         <v>1</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G124" s="4">
         <v>19970619</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>11</v>
@@ -10641,34 +10650,34 @@
         <v>12</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="Q124" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U124" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V124" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W124" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD124" s="4" t="s">
         <v>14</v>
@@ -10682,22 +10691,22 @@
         <v>2</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G125" s="4">
         <v>19970619</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>11</v>
@@ -10706,34 +10715,34 @@
         <v>12</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U125" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V125" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W125" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD125" s="4" t="s">
         <v>14</v>
@@ -10747,22 +10756,22 @@
         <v>3</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G126" s="4">
         <v>19970619</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>11</v>
@@ -10771,34 +10780,34 @@
         <v>12</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U126" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V126" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W126" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD126" s="4" t="s">
         <v>14</v>
@@ -10812,22 +10821,22 @@
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G127" s="4">
         <v>19970619</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>11</v>
@@ -10836,34 +10845,34 @@
         <v>12</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U127" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V127" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W127" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD127" s="4" t="s">
         <v>14</v>
@@ -10877,7 +10886,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>20</v>
@@ -10892,7 +10901,7 @@
         <v>19970619</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>11</v>
@@ -10901,34 +10910,34 @@
         <v>12</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U128" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V128" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W128" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD128" s="4" t="s">
         <v>14</v>
@@ -10942,22 +10951,22 @@
         <v>6</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G129" s="4">
         <v>19970619</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>11</v>
@@ -10966,34 +10975,34 @@
         <v>12</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U129" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V129" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W129" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD129" s="4" t="s">
         <v>14</v>
@@ -11007,22 +11016,22 @@
         <v>7</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G130" s="4">
         <v>19970619</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>11</v>
@@ -11031,40 +11040,40 @@
         <v>12</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="S130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U130" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V130" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W130" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD130" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="170" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="153" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>9</v>
       </c>
@@ -11072,22 +11081,22 @@
         <v>1</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G131" s="4">
         <v>19970619</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>11</v>
@@ -11096,41 +11105,41 @@
         <v>12</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L131" s="5"/>
       <c r="M131" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="Q131" s="4" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="S131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U131" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V131" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W131" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD131" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="170" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="153" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>9</v>
       </c>
@@ -11138,22 +11147,22 @@
         <v>2</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G132" s="4">
         <v>19970619</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>11</v>
@@ -11162,40 +11171,40 @@
         <v>12</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="Q132" s="4" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="S132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U132" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V132" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W132" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD132" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="170" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="153" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>9</v>
       </c>
@@ -11203,22 +11212,22 @@
         <v>3</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G133" s="4">
         <v>19970619</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>11</v>
@@ -11227,40 +11236,40 @@
         <v>12</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U133" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V133" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W133" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD133" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="170" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="153" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>9</v>
       </c>
@@ -11283,7 +11292,7 @@
         <v>19970619</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>11</v>
@@ -11292,41 +11301,41 @@
         <v>12</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L134" s="5"/>
       <c r="M134" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="S134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U134" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V134" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W134" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD134" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="170" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="153" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>9</v>
       </c>
@@ -11334,22 +11343,22 @@
         <v>5</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G135" s="4">
         <v>19970619</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>11</v>
@@ -11358,34 +11367,34 @@
         <v>12</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="S135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U135" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V135" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W135" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD135" s="4" t="s">
         <v>14</v>
@@ -11399,22 +11408,22 @@
         <v>6</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G136" s="4">
         <v>19970619</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>11</v>
@@ -11423,37 +11432,37 @@
         <v>12</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="S136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U136" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V136" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W136" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AC136" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AD136" s="4" t="s">
         <v>14</v>
@@ -11467,22 +11476,22 @@
         <v>7</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G137" s="4">
         <v>19970619</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>11</v>
@@ -11491,34 +11500,34 @@
         <v>12</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U137" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V137" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W137" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD137" s="4" t="s">
         <v>14</v>
@@ -11532,22 +11541,22 @@
         <v>1</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G138" s="4">
         <v>19970619</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>11</v>
@@ -11556,34 +11565,34 @@
         <v>12</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="S138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U138" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V138" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W138" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AD138" s="4" t="s">
         <v>14</v>
@@ -11597,22 +11606,22 @@
         <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G139" s="4">
         <v>19970619</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>11</v>
@@ -11621,34 +11630,34 @@
         <v>12</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="S139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U139" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V139" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W139" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AD139" s="4" t="s">
         <v>14</v>
@@ -11662,22 +11671,22 @@
         <v>3</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G140" s="4">
         <v>19970619</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>11</v>
@@ -11686,34 +11695,34 @@
         <v>12</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P140" s="4" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="Q140" s="4" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="S140" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U140" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V140" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W140" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AD140" s="4" t="s">
         <v>14</v>
@@ -11727,22 +11736,22 @@
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G141" s="4">
         <v>19970619</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>11</v>
@@ -11751,34 +11760,34 @@
         <v>12</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U141" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V141" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W141" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AD141" s="4" t="s">
         <v>14</v>
@@ -11792,22 +11801,22 @@
         <v>5</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G142" s="4">
         <v>19970619</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>11</v>
@@ -11816,37 +11825,37 @@
         <v>12</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="R142" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="S142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U142" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V142" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W142" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AB142" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD142" s="4" t="s">
         <v>14</v>
@@ -11860,22 +11869,22 @@
         <v>6</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G143" s="4">
         <v>19970619</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>11</v>
@@ -11884,34 +11893,34 @@
         <v>12</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P143" s="4" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="S143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U143" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V143" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W143" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AB143" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AD143" s="4" t="s">
         <v>14</v>
@@ -11925,22 +11934,22 @@
         <v>7</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G144" s="4">
         <v>19970619</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>11</v>
@@ -11949,40 +11958,40 @@
         <v>12</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="S144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U144" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V144" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="AA144" s="4" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="AB144" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AD144" s="4" t="s">
         <v>14</v>
@@ -12011,7 +12020,7 @@
         <v>19970619</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>11</v>
@@ -12020,34 +12029,34 @@
         <v>12</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U145" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V145" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="W145" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AB145" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD145" s="4" t="s">
         <v>14</v>
@@ -12061,22 +12070,22 @@
         <v>9</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G146" s="4">
         <v>19970619</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>11</v>
@@ -12085,31 +12094,31 @@
         <v>12</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U146" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V146" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W146" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB146" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD146" s="4" t="s">
         <v>14</v>
@@ -12123,22 +12132,22 @@
         <v>10</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G147" s="4">
         <v>19970619</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>11</v>
@@ -12147,31 +12156,31 @@
         <v>12</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U147" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V147" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W147" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB147" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD147" s="4" t="s">
         <v>14</v>
@@ -12185,22 +12194,22 @@
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G148" s="4">
         <v>19970619</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>11</v>
@@ -12209,31 +12218,31 @@
         <v>12</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N148" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U148" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V148" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB148" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD148" s="4" t="s">
         <v>14</v>
@@ -12247,22 +12256,22 @@
         <v>12</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G149" s="4">
         <v>19970619</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I149" s="5" t="s">
         <v>11</v>
@@ -12271,31 +12280,31 @@
         <v>12</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N149" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S149" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U149" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V149" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W149" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB149" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD149" s="4" t="s">
         <v>14</v>
@@ -12309,22 +12318,22 @@
         <v>1</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G150" s="4">
         <v>19970619</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I150" s="5" t="s">
         <v>11</v>
@@ -12333,31 +12342,31 @@
         <v>12</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N150" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S150" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U150" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V150" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W150" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB150" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD150" s="4" t="s">
         <v>14</v>
@@ -12371,22 +12380,22 @@
         <v>2</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G151" s="4">
         <v>19970619</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I151" s="5" t="s">
         <v>11</v>
@@ -12395,31 +12404,31 @@
         <v>12</v>
       </c>
       <c r="K151" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N151" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U151" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V151" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W151" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB151" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD151" s="4" t="s">
         <v>14</v>
@@ -12433,22 +12442,22 @@
         <v>3</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G152" s="4">
         <v>19970619</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>11</v>
@@ -12457,31 +12466,31 @@
         <v>12</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N152" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S152" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U152" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V152" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W152" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB152" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD152" s="4" t="s">
         <v>14</v>
@@ -12495,22 +12504,22 @@
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G153" s="4">
         <v>19970619</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I153" s="5" t="s">
         <v>11</v>
@@ -12519,31 +12528,31 @@
         <v>12</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N153" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S153" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U153" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V153" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W153" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB153" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD153" s="4" t="s">
         <v>14</v>
@@ -12557,22 +12566,22 @@
         <v>5</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G154" s="4">
         <v>19970619</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I154" s="5" t="s">
         <v>11</v>
@@ -12581,31 +12590,31 @@
         <v>12</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S154" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U154" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V154" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W154" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB154" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD154" s="4" t="s">
         <v>14</v>
@@ -12619,22 +12628,22 @@
         <v>6</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G155" s="4">
         <v>19970619</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I155" s="5" t="s">
         <v>11</v>
@@ -12643,34 +12652,34 @@
         <v>12</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S155" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U155" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V155" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W155" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB155" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AC155" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AD155" s="4" t="s">
         <v>14</v>
@@ -12684,22 +12693,22 @@
         <v>7</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G156" s="4">
         <v>19970619</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>11</v>
@@ -12708,31 +12717,31 @@
         <v>12</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U156" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V156" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W156" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB156" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD156" s="4" t="s">
         <v>14</v>
@@ -12746,22 +12755,22 @@
         <v>8</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G157" s="4">
         <v>19970619</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I157" s="5" t="s">
         <v>11</v>
@@ -12770,31 +12779,31 @@
         <v>12</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U157" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V157" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W157" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB157" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD157" s="4" t="s">
         <v>14</v>
@@ -12808,22 +12817,22 @@
         <v>9</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G158" s="4">
         <v>19970619</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>11</v>
@@ -12832,31 +12841,31 @@
         <v>12</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S158" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U158" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V158" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W158" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB158" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD158" s="4" t="s">
         <v>14</v>
@@ -12870,22 +12879,22 @@
         <v>10</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G159" s="4">
         <v>19970619</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I159" s="5" t="s">
         <v>11</v>
@@ -12894,31 +12903,31 @@
         <v>12</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S159" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W159" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB159" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD159" s="4" t="s">
         <v>14</v>
@@ -12932,22 +12941,22 @@
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G160" s="4">
         <v>19970619</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>11</v>
@@ -12956,31 +12965,31 @@
         <v>12</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S160" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U160" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W160" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB160" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD160" s="4" t="s">
         <v>14</v>
@@ -12994,22 +13003,22 @@
         <v>12</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G161" s="4">
         <v>19970619</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>11</v>
@@ -13018,31 +13027,31 @@
         <v>12</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S161" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U161" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V161" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W161" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB161" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD161" s="4" t="s">
         <v>14</v>
@@ -13056,22 +13065,22 @@
         <v>13</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G162" s="4">
         <v>19970619</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>11</v>
@@ -13080,31 +13089,31 @@
         <v>12</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O162" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="S162" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U162" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V162" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W162" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB162" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD162" s="4" t="s">
         <v>14</v>
@@ -13118,22 +13127,22 @@
         <v>14</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G163" s="4">
         <v>19970619</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>11</v>
@@ -13142,37 +13151,37 @@
         <v>12</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="P163" s="4">
         <v>2672</v>
       </c>
       <c r="Q163" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R163" s="4" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="S163" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U163" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V163" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W163" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD163" s="4" t="s">
         <v>14</v>
@@ -13186,22 +13195,22 @@
         <v>1</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G164" s="4">
         <v>19970619</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>11</v>
@@ -13210,37 +13219,37 @@
         <v>12</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N164" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="P164" s="4">
         <v>2672</v>
       </c>
       <c r="Q164" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="S164" s="4" t="s">
         <v>0</v>
       </c>
       <c r="U164" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V164" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W164" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD164" s="4" t="s">
         <v>14</v>
@@ -13254,22 +13263,22 @@
         <v>2</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G165" s="4">
         <v>19970619</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>11</v>
@@ -13278,37 +13287,37 @@
         <v>12</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="P165" s="4">
         <v>2672</v>
       </c>
       <c r="Q165" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R165" s="4" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="S165" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U165" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V165" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W165" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD165" s="4" t="s">
         <v>14</v>
@@ -13322,22 +13331,22 @@
         <v>3</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G166" s="4">
         <v>19970619</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>11</v>
@@ -13346,37 +13355,37 @@
         <v>12</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="P166" s="4">
         <v>2672</v>
       </c>
       <c r="Q166" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R166" s="4" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="S166" s="5" t="s">
         <v>9</v>
       </c>
       <c r="U166" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V166" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W166" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD166" s="4" t="s">
         <v>14</v>
@@ -13390,22 +13399,22 @@
         <v>4</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G167" s="4">
         <v>19970619</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I167" s="5" t="s">
         <v>11</v>
@@ -13414,25 +13423,25 @@
         <v>12</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="Q167" s="4" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="R167" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="S167" s="5" t="s">
         <v>9</v>
@@ -13441,13 +13450,13 @@
         <v>70</v>
       </c>
       <c r="U167" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V167" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W167" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD167" s="4" t="s">
         <v>14</v>
@@ -13461,22 +13470,22 @@
         <v>5</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G168" s="4">
         <v>19970619</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I168" s="5" t="s">
         <v>11</v>
@@ -13485,16 +13494,16 @@
         <v>12</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="S168" s="5" t="s">
         <v>9</v>
@@ -13503,13 +13512,13 @@
         <v>70</v>
       </c>
       <c r="U168" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V168" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W168" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD168" s="4" t="s">
         <v>14</v>
@@ -13523,22 +13532,22 @@
         <v>6</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G169" s="4">
         <v>19970619</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I169" s="5" t="s">
         <v>11</v>
@@ -13547,16 +13556,16 @@
         <v>12</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="S169" s="5" t="s">
         <v>9</v>
@@ -13565,13 +13574,13 @@
         <v>70</v>
       </c>
       <c r="U169" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V169" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W169" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD169" s="4" t="s">
         <v>14</v>
@@ -13585,22 +13594,22 @@
         <v>7</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G170" s="4">
         <v>19970619</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I170" s="5" t="s">
         <v>11</v>
@@ -13609,16 +13618,16 @@
         <v>12</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="S170" s="5" t="s">
         <v>9</v>
@@ -13627,13 +13636,13 @@
         <v>70</v>
       </c>
       <c r="U170" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V170" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W170" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD170" s="4" t="s">
         <v>14</v>
@@ -13662,7 +13671,7 @@
         <v>19970619</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>11</v>
@@ -13671,17 +13680,17 @@
         <v>12</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L171" s="5"/>
       <c r="M171" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="S171" s="5" t="s">
         <v>9</v>
@@ -13690,13 +13699,13 @@
         <v>70</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V171" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W171" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD171" s="4" t="s">
         <v>14</v>
@@ -13725,7 +13734,7 @@
         <v>19970619</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I172" s="5" t="s">
         <v>11</v>
@@ -13734,16 +13743,16 @@
         <v>12</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="S172" s="5" t="s">
         <v>9</v>
@@ -13752,13 +13761,13 @@
         <v>70</v>
       </c>
       <c r="U172" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V172" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W172" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD172" s="4" t="s">
         <v>14</v>
@@ -13772,22 +13781,22 @@
         <v>10</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G173" s="4">
         <v>19970619</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I173" s="5" t="s">
         <v>11</v>
@@ -13796,16 +13805,16 @@
         <v>12</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N173" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="S173" s="5" t="s">
         <v>9</v>
@@ -13814,13 +13823,13 @@
         <v>70</v>
       </c>
       <c r="U173" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="V173" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD173" s="4" t="s">
         <v>14</v>
@@ -13834,22 +13843,22 @@
         <v>11</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G174" s="4">
         <v>19970619</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I174" s="5" t="s">
         <v>11</v>
@@ -13858,35 +13867,35 @@
         <v>12</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="R174" s="4" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="S174" s="5"/>
       <c r="U174" s="4" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="V174" s="4" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="W174" s="4" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="AD174" s="4" t="s">
         <v>14</v>
@@ -13900,22 +13909,22 @@
         <v>12</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="G175" s="4">
         <v>19970619</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I175" s="5" t="s">
         <v>11</v>
@@ -13924,35 +13933,35 @@
         <v>12</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M175" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N175" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="R175" s="4" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="S175" s="5"/>
       <c r="U175" s="4" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="V175" s="4" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="W175" s="4" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="AD175" s="4" t="s">
         <v>14</v>
@@ -13966,22 +13975,22 @@
         <v>1</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G176" s="4">
         <v>19970619</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I176" s="5" t="s">
         <v>11</v>
@@ -13990,46 +13999,46 @@
         <v>12</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N176" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R176" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="T176" s="4">
         <v>40</v>
       </c>
       <c r="U176" s="4" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="V176" s="4" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="W176" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="Z176" s="4">
         <v>70</v>
       </c>
       <c r="AA176" s="4" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="AB176" s="4" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14040,22 +14049,22 @@
         <v>2</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G177" s="4">
         <v>19970619</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I177" s="5" t="s">
         <v>11</v>
@@ -14064,40 +14073,40 @@
         <v>12</v>
       </c>
       <c r="K177" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N177" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q177" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R177" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="T177" s="4">
         <v>40</v>
       </c>
       <c r="U177" s="4" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="V177" s="4" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="W177" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="AB177" s="4" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14108,22 +14117,22 @@
         <v>3</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G178" s="4">
         <v>19970619</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I178" s="5" t="s">
         <v>11</v>
@@ -14132,40 +14141,40 @@
         <v>12</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N178" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q178" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R178" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="T178" s="4">
         <v>40</v>
       </c>
       <c r="U178" s="4" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="V178" s="4" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="W178" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="AB178" s="4" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14176,22 +14185,22 @@
         <v>4</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G179" s="4">
         <v>19970619</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>11</v>
@@ -14200,40 +14209,40 @@
         <v>12</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N179" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O179" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R179" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="T179" s="4">
         <v>40</v>
       </c>
       <c r="U179" s="4" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="V179" s="4" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="W179" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="AB179" s="4" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14244,22 +14253,22 @@
         <v>5</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G180" s="4">
         <v>19970619</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>11</v>
@@ -14268,40 +14277,40 @@
         <v>12</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M180" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N180" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q180" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R180" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="T180" s="4">
         <v>40</v>
       </c>
       <c r="U180" s="4" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="V180" s="4" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="W180" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="AB180" s="4" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14312,22 +14321,22 @@
         <v>6</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G181" s="4">
         <v>19970619</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="I181" s="5" t="s">
         <v>11</v>
@@ -14336,40 +14345,40 @@
         <v>12</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N181" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q181" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R181" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="T181" s="4">
         <v>40</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="V181" s="4" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="W181" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="AB181" s="4" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="182" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14380,22 +14389,22 @@
         <v>7</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="G182" s="4">
         <v>19970619</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="I182" s="5" t="s">
         <v>11</v>
@@ -14404,31 +14413,31 @@
         <v>12</v>
       </c>
       <c r="K182" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M182" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N182" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P182" s="4">
         <v>2690</v>
       </c>
       <c r="Q182" s="4" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="U182" s="4" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="V182" s="4" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="W182" s="4" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14439,22 +14448,22 @@
         <v>8</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="G183" s="4">
         <v>19970619</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="I183" s="5" t="s">
         <v>11</v>
@@ -14463,31 +14472,31 @@
         <v>12</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M183" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N183" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O183" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P183" s="4">
         <v>2690</v>
       </c>
       <c r="Q183" s="4" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="U183" s="4" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="V183" s="4" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="W183" s="4" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14498,22 +14507,22 @@
         <v>9</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G184" s="4">
         <v>19970619</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="I184" s="5" t="s">
         <v>11</v>
@@ -14522,31 +14531,31 @@
         <v>12</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M184" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N184" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P184" s="4">
         <v>2690</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="U184" s="4" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="V184" s="4" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="W184" s="4" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14557,22 +14566,22 @@
         <v>10</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G185" s="4">
         <v>19970619</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="I185" s="5" t="s">
         <v>11</v>
@@ -14581,31 +14590,31 @@
         <v>12</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N185" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O185" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P185" s="4">
         <v>2690</v>
       </c>
       <c r="Q185" s="4" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="U185" s="4" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="V185" s="4" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="W185" s="4" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14616,22 +14625,22 @@
         <v>1</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="G186" s="4">
         <v>19970620</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="I186" s="5" t="s">
         <v>11</v>
@@ -14640,10 +14649,10 @@
         <v>12</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N186" s="5" t="s">
         <v>8</v>
@@ -14657,22 +14666,22 @@
         <v>2</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G187" s="4">
         <v>19970620</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>11</v>
@@ -14681,10 +14690,10 @@
         <v>12</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M187" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>8</v>
@@ -14698,22 +14707,22 @@
         <v>3</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="G188" s="4">
         <v>19970620</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="I188" s="5" t="s">
         <v>11</v>
@@ -14722,25 +14731,25 @@
         <v>12</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N188" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="Z188" s="4" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="AA188" s="4" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="AB188" s="4" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -14751,22 +14760,22 @@
         <v>4</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="G189" s="4">
         <v>19970620</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="I189" s="5" t="s">
         <v>11</v>
@@ -14775,25 +14784,25 @@
         <v>12</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="Z189" s="4" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="AA189" s="4" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="AB189" s="4" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -14804,22 +14813,22 @@
         <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="G190" s="4">
         <v>19970620</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="I190" s="5" t="s">
         <v>11</v>
@@ -14828,10 +14837,10 @@
         <v>12</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N190" s="5" t="s">
         <v>8</v>
@@ -14840,10 +14849,10 @@
         <v>200</v>
       </c>
       <c r="AA190" s="4" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="AB190" s="4" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14854,22 +14863,22 @@
         <v>6</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="G191" s="4">
         <v>19970620</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>11</v>
@@ -14878,19 +14887,19 @@
         <v>12</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N191" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="AB191" s="4" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -14901,22 +14910,22 @@
         <v>7</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="G192" s="4">
         <v>19970620</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I192" s="5" t="s">
         <v>11</v>
@@ -14925,31 +14934,31 @@
         <v>12</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N192" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="U192" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V192" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB192" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14960,22 +14969,22 @@
         <v>8</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G193" s="4">
         <v>19970620</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I193" s="5" t="s">
         <v>11</v>
@@ -14984,34 +14993,34 @@
         <v>12</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M193" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N193" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="U193" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V193" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W193" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB193" s="4" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15022,22 +15031,22 @@
         <v>9</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="G194" s="4">
         <v>19970620</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I194" s="5" t="s">
         <v>11</v>
@@ -15046,34 +15055,34 @@
         <v>12</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M194" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N194" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="U194" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V194" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W194" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB194" s="4" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15084,22 +15093,22 @@
         <v>10</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G195" s="4">
         <v>19970620</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I195" s="5" t="s">
         <v>11</v>
@@ -15108,34 +15117,34 @@
         <v>12</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M195" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N195" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="U195" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V195" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W195" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB195" s="4" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15146,22 +15155,22 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="G196" s="4">
         <v>19970620</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>11</v>
@@ -15170,34 +15179,34 @@
         <v>12</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N196" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q196" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="U196" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V196" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W196" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB196" s="4" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15208,22 +15217,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="G197" s="4">
         <v>19970620</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>11</v>
@@ -15232,34 +15241,34 @@
         <v>12</v>
       </c>
       <c r="K197" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M197" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N197" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="U197" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V197" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W197" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB197" s="4" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="198" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15270,22 +15279,22 @@
         <v>13</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G198" s="4">
         <v>19970620</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>11</v>
@@ -15294,34 +15303,34 @@
         <v>12</v>
       </c>
       <c r="K198" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N198" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="Q198" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="U198" s="4" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="V198" s="4" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="W198" s="4" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="AB198" s="4" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15332,58 +15341,912 @@
         <v>14</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G199" s="4">
         <v>19970620</v>
       </c>
       <c r="H199" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M199" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O199" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P199" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="U199" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V199" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="W199" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB199" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>16</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G200" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O200" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="P200" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q200" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R200" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="T200" s="4">
+        <v>3</v>
+      </c>
+      <c r="U200" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V200" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W200" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB200" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>16</v>
+      </c>
+      <c r="B201" s="4">
+        <v>2</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G201" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M201" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O201" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="P201" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q201" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R201" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="T201" s="4">
+        <v>3</v>
+      </c>
+      <c r="U201" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V201" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W201" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB201" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>16</v>
+      </c>
+      <c r="B202" s="4">
+        <v>3</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G202" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O202" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="P202" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q202" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R202" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="T202" s="4">
+        <v>3</v>
+      </c>
+      <c r="U202" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V202" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W202" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB202" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>16</v>
+      </c>
+      <c r="B203" s="4">
+        <v>4</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G203" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M203" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O203" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U203" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V203" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W203" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB203" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>16</v>
+      </c>
+      <c r="B204" s="4">
+        <v>5</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G204" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O204" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U204" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V204" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W204" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z204" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA204" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB204" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>16</v>
+      </c>
+      <c r="B205" s="4">
+        <v>6</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G205" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M205" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O205" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U205" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V205" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W205" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB205" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>16</v>
+      </c>
+      <c r="B206" s="4">
+        <v>7</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G206" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O206" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U206" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V206" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W206" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB206" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>17</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G207" s="4">
+        <v>19970620</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M207" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N207" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P207" s="4">
+        <v>2717</v>
+      </c>
+      <c r="Q207" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="R207" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="U207" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="V207" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="W207" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z207" s="4">
+        <v>200</v>
+      </c>
+      <c r="AA207" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB207" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="I199" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K199" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="M199" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="N199" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O199" s="4" t="s">
+    </row>
+    <row r="208" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>17</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G208" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M208" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O208" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="P199" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q199" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="U199" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="V199" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="W199" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB199" s="4" t="s">
+      <c r="R208" s="4" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>17</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G209" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K209" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M209" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O209" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R209" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>17</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G210" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N210" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O210" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R210" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>17</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M211" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N211" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O211" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R211" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>17</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G212" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O212" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R212" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>17</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G213" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K213" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M213" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N213" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O213" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R213" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>17</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G214" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N214" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O214" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R214" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>17</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G215" s="4">
+        <v>19970621</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K215" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M215" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N215" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O215" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="R215" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB215" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF874A5-1EBD-BB49-859D-F45EC00BC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698643E-2D46-E14F-8064-B4EADAB81069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -4204,7 +4204,7 @@
   <dimension ref="A1:AF215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="H219" sqref="H219"/>
     </sheetView>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-8-occ-entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698643E-2D46-E14F-8064-B4EADAB81069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA26703-58F4-2B4B-922C-AD8E24640AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3299,18 +3299,6 @@
     <t>qualitative</t>
   </si>
   <si>
-    <t>Metchosin; south shore of Matheson Lake</t>
-  </si>
-  <si>
-    <t>Metchosin; penninsula middle of south site of Matheson Lake</t>
-  </si>
-  <si>
-    <t>Metchosin; west end of Matheson Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metchosin; north side of Matheson Lake </t>
-  </si>
-  <si>
     <t>Metchosin; Blinkhorn Lake</t>
   </si>
   <si>
@@ -3323,36 +3311,15 @@
     <t>Saltspring Island; Cusheon Lake</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltspring Island; east end of Cusheon Lake </t>
-  </si>
-  <si>
-    <t>Saltspring Island; north end of Cusheon Lake</t>
-  </si>
-  <si>
-    <t>Saltspring Islandl; Bullocks Pond</t>
-  </si>
-  <si>
     <t>Saltspring Island; Maxwell Lake</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltspring Island; lower end of Maxwell Lake </t>
-  </si>
-  <si>
     <t>Saltspring Island; Blackburn Lake</t>
   </si>
   <si>
-    <t>Texada Island; Harwood Point; east end of Dick Island</t>
-  </si>
-  <si>
     <t>Texada Island; Dick Island</t>
   </si>
   <si>
-    <t>Texada Island; west end of Dick Island</t>
-  </si>
-  <si>
-    <t>Texada Island; interior of Dick Island</t>
-  </si>
-  <si>
     <t>Texada Island; Harwood Point</t>
   </si>
   <si>
@@ -3458,9 +3425,6 @@
     <t xml:space="preserve">Lysichiton </t>
   </si>
   <si>
-    <t>Texada Island; northwest point of Blubber Bay</t>
-  </si>
-  <si>
     <t>Conioselinum pacificum</t>
   </si>
   <si>
@@ -3708,6 +3672,42 @@
   </si>
   <si>
     <t xml:space="preserve">Texada Island; Gillies Bay; forest behind ball field </t>
+  </si>
+  <si>
+    <t>Metchosin; Matheson Lake; south shore of lake</t>
+  </si>
+  <si>
+    <t>Metchosin; Matheson Lake; penninsula middle of south site of lake</t>
+  </si>
+  <si>
+    <t>Metchosin; Matheson Lake; west end of lake</t>
+  </si>
+  <si>
+    <t>Metchosin; Matheson Lake; north side of lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltspring Island; Cusheon Lake; east end of lake </t>
+  </si>
+  <si>
+    <t>Saltspring Island; Cusheon Lake; north end of lake</t>
+  </si>
+  <si>
+    <t>Saltspring Island; Bullocks Pond</t>
+  </si>
+  <si>
+    <t>Saltspring Island; Maxwell Lake; lower end of lake</t>
+  </si>
+  <si>
+    <t>Texada Island; Harwood Point; Dick Island; east end of island</t>
+  </si>
+  <si>
+    <t>Texada Island; Dick Island; west end of island</t>
+  </si>
+  <si>
+    <t>Texada Island; Dick Island; interior of island</t>
+  </si>
+  <si>
+    <t>Texada Island; Blubber Bay; northwest point of bay</t>
   </si>
 </sst>
 </file>
@@ -3905,7 +3905,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4193,7 +4193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4203,10 +4203,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="H219" sqref="H219"/>
+      <selection pane="bottomLeft" activeCell="H186" sqref="H186:H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4367,7 +4367,7 @@
         <v>19960925</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
@@ -4417,7 +4417,7 @@
         <v>19960925</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
@@ -4467,7 +4467,7 @@
         <v>19960925</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>11</v>
@@ -4517,7 +4517,7 @@
         <v>19960925</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>11</v>
@@ -4567,7 +4567,7 @@
         <v>19960925</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
@@ -4617,7 +4617,7 @@
         <v>19960925</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -4658,7 +4658,7 @@
         <v>19960925</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
@@ -4711,7 +4711,7 @@
         <v>19960925</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>11</v>
@@ -4761,7 +4761,7 @@
         <v>19960925</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>11</v>
@@ -4811,7 +4811,7 @@
         <v>19960925</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>11</v>
@@ -4861,7 +4861,7 @@
         <v>19960925</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>11</v>
@@ -4911,7 +4911,7 @@
         <v>19960925</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>11</v>
@@ -4961,7 +4961,7 @@
         <v>19960925</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>11</v>
@@ -5011,7 +5011,7 @@
         <v>19960925</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>11</v>
@@ -5061,7 +5061,7 @@
         <v>19960925</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
@@ -5111,7 +5111,7 @@
         <v>19960925</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>11</v>
@@ -5164,7 +5164,7 @@
         <v>19960925</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>11</v>
@@ -5217,7 +5217,7 @@
         <v>19960925</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>11</v>
@@ -5270,7 +5270,7 @@
         <v>19960925</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>11</v>
@@ -5320,7 +5320,7 @@
         <v>19960925</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
@@ -5373,7 +5373,7 @@
         <v>19960925</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>11</v>
@@ -5429,7 +5429,7 @@
         <v>19960925</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>11</v>
@@ -5485,7 +5485,7 @@
         <v>19960925</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>11</v>
@@ -5532,7 +5532,7 @@
         <v>19960925</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>11</v>
@@ -5585,7 +5585,7 @@
         <v>19960925</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
@@ -5635,7 +5635,7 @@
         <v>19960925</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>11</v>
@@ -5685,7 +5685,7 @@
         <v>19960925</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>11</v>
@@ -5735,7 +5735,7 @@
         <v>19960925</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -5785,7 +5785,7 @@
         <v>19960925</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>11</v>
@@ -5838,7 +5838,7 @@
         <v>19960925</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>11</v>
@@ -5891,7 +5891,7 @@
         <v>19960925</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>11</v>
@@ -5942,7 +5942,7 @@
         <v>19960925</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>11</v>
@@ -5989,7 +5989,7 @@
         <v>19960925</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>11</v>
@@ -6042,7 +6042,7 @@
         <v>19960925</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>11</v>
@@ -6093,7 +6093,7 @@
         <v>19960925</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>11</v>
@@ -6143,7 +6143,7 @@
         <v>19960925</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>11</v>
@@ -6185,7 +6185,7 @@
         <v>19960925</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>11</v>
@@ -6238,7 +6238,7 @@
         <v>19960925</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>11</v>
@@ -6288,7 +6288,7 @@
         <v>19960925</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>11</v>
@@ -6338,7 +6338,7 @@
         <v>19960925</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>11</v>
@@ -6388,7 +6388,7 @@
         <v>19960925</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>11</v>
@@ -6438,7 +6438,7 @@
         <v>19960925</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
@@ -6488,7 +6488,7 @@
         <v>19960925</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>11</v>
@@ -6538,7 +6538,7 @@
         <v>19961030</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>11</v>
@@ -6591,7 +6591,7 @@
         <v>19961030</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>11</v>
@@ -6612,7 +6612,7 @@
         <v>249</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="Y46" s="4">
         <v>3</v>
@@ -6647,7 +6647,7 @@
         <v>19961030</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>11</v>
@@ -6668,7 +6668,7 @@
         <v>249</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>9</v>
@@ -6703,7 +6703,7 @@
         <v>19961030</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>11</v>
@@ -6724,7 +6724,7 @@
         <v>249</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>9</v>
@@ -6756,7 +6756,7 @@
         <v>19961030</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>11</v>
@@ -6777,7 +6777,7 @@
         <v>249</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>9</v>
@@ -6812,7 +6812,7 @@
         <v>19961030</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>11</v>
@@ -6833,7 +6833,7 @@
         <v>249</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>9</v>
@@ -6868,7 +6868,7 @@
         <v>19961030</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>11</v>
@@ -6889,7 +6889,7 @@
         <v>249</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S51" s="4" t="s">
         <v>9</v>
@@ -6924,7 +6924,7 @@
         <v>19961030</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>11</v>
@@ -6945,7 +6945,7 @@
         <v>249</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         <v>19961030</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>11</v>
@@ -7001,7 +7001,7 @@
         <v>249</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>9</v>
@@ -7036,7 +7036,7 @@
         <v>19961030</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>11</v>
@@ -7057,7 +7057,7 @@
         <v>249</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>9</v>
@@ -7092,7 +7092,7 @@
         <v>19961030</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>11</v>
@@ -7113,7 +7113,7 @@
         <v>249</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S55" s="4" t="s">
         <v>9</v>
@@ -7148,7 +7148,7 @@
         <v>19961030</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>11</v>
@@ -7169,7 +7169,7 @@
         <v>249</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S56" s="4" t="s">
         <v>9</v>
@@ -7204,7 +7204,7 @@
         <v>19961030</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>11</v>
@@ -7225,7 +7225,7 @@
         <v>249</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S57" s="4" t="s">
         <v>9</v>
@@ -7260,7 +7260,7 @@
         <v>19961030</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>11</v>
@@ -7281,7 +7281,7 @@
         <v>249</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>9</v>
@@ -7316,7 +7316,7 @@
         <v>19961030</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>11</v>
@@ -7337,7 +7337,7 @@
         <v>249</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S59" s="4" t="s">
         <v>9</v>
@@ -7363,7 +7363,7 @@
         <v>19961030</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>11</v>
@@ -7381,7 +7381,7 @@
         <v>249</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="Y60" s="4">
         <v>4</v>
@@ -7407,7 +7407,7 @@
         <v>19961030</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>11</v>
@@ -7428,7 +7428,7 @@
         <v>249</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S61" s="4" t="s">
         <v>9</v>
@@ -7466,7 +7466,7 @@
         <v>19961030</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>11</v>
@@ -7487,7 +7487,7 @@
         <v>249</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>9</v>
@@ -7513,7 +7513,7 @@
         <v>19961030</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>11</v>
@@ -7560,7 +7560,7 @@
         <v>19961030</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>11</v>
@@ -7613,7 +7613,7 @@
         <v>19961030</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>11</v>
@@ -7663,7 +7663,7 @@
         <v>19961030</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>11</v>
@@ -7713,7 +7713,7 @@
         <v>19961030</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>11</v>
@@ -7766,7 +7766,7 @@
         <v>19961030</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>11</v>
@@ -7819,7 +7819,7 @@
         <v>19961030</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>11</v>
@@ -7872,7 +7872,7 @@
         <v>19961030</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>11</v>
@@ -7922,7 +7922,7 @@
         <v>19961030</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>11</v>
@@ -7981,7 +7981,7 @@
         <v>19961030</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>11</v>
@@ -8040,7 +8040,7 @@
         <v>19961030</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>11</v>
@@ -8096,7 +8096,7 @@
         <v>19961030</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>11</v>
@@ -8152,7 +8152,7 @@
         <v>19961030</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>11</v>
@@ -8208,7 +8208,7 @@
         <v>19961030</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>11</v>
@@ -8264,7 +8264,7 @@
         <v>19961030</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>11</v>
@@ -8320,7 +8320,7 @@
         <v>19961030</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>11</v>
@@ -8370,7 +8370,7 @@
         <v>19961030</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>11</v>
@@ -8420,7 +8420,7 @@
         <v>19961030</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>11</v>
@@ -8461,7 +8461,7 @@
         <v>19961030</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>11</v>
@@ -8512,7 +8512,7 @@
         <v>19961030</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>11</v>
@@ -8562,7 +8562,7 @@
         <v>19961030</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>11</v>
@@ -8612,7 +8612,7 @@
         <v>19961030</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>11</v>
@@ -8662,7 +8662,7 @@
         <v>19961030</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>11</v>
@@ -8718,7 +8718,7 @@
         <v>19961030</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>11</v>
@@ -8768,7 +8768,7 @@
         <v>19961030</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>11</v>
@@ -8821,7 +8821,7 @@
         <v>19961030</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>11</v>
@@ -8871,7 +8871,7 @@
         <v>19961030</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>11</v>
@@ -8916,7 +8916,7 @@
         <v>19961030</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>11</v>
@@ -8966,7 +8966,7 @@
         <v>19961030</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>11</v>
@@ -9013,7 +9013,7 @@
         <v>19961030</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>11</v>
@@ -9060,7 +9060,7 @@
         <v>19961030</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>11</v>
@@ -9107,7 +9107,7 @@
         <v>19961030</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>11</v>
@@ -9128,7 +9128,7 @@
         <v>250</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S94" s="5" t="s">
         <v>9</v>
@@ -9160,7 +9160,7 @@
         <v>19961030</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>11</v>
@@ -9181,7 +9181,7 @@
         <v>250</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S95" s="5" t="s">
         <v>9</v>
@@ -9213,7 +9213,7 @@
         <v>19961030</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>11</v>
@@ -9234,7 +9234,7 @@
         <v>250</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>9</v>
@@ -9266,7 +9266,7 @@
         <v>19961030</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>11</v>
@@ -9287,7 +9287,7 @@
         <v>250</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>9</v>
@@ -9319,7 +9319,7 @@
         <v>19961030</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>11</v>
@@ -9340,7 +9340,7 @@
         <v>250</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>9</v>
@@ -9372,7 +9372,7 @@
         <v>19961030</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>11</v>
@@ -9393,7 +9393,7 @@
         <v>250</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>9</v>
@@ -9419,7 +9419,7 @@
         <v>19961030</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>11</v>
@@ -9440,7 +9440,7 @@
         <v>250</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S100" s="4" t="s">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>19961030</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>11</v>
@@ -9484,7 +9484,7 @@
         <v>250</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AD101" s="4" t="s">
         <v>14</v>
@@ -9516,7 +9516,7 @@
         <v>19961030</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>11</v>
@@ -9537,7 +9537,7 @@
         <v>250</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S102" s="5" t="s">
         <v>9</v>
@@ -9569,7 +9569,7 @@
         <v>19961030</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>11</v>
@@ -9590,7 +9590,7 @@
         <v>250</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S103" s="5" t="s">
         <v>9</v>
@@ -9622,7 +9622,7 @@
         <v>19961030</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>11</v>
@@ -9643,7 +9643,7 @@
         <v>250</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S104" s="4" t="s">
         <v>9</v>
@@ -9675,7 +9675,7 @@
         <v>19961030</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>11</v>
@@ -9696,7 +9696,7 @@
         <v>250</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>9</v>
@@ -9728,7 +9728,7 @@
         <v>19961030</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>11</v>
@@ -9749,7 +9749,7 @@
         <v>250</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>9</v>
@@ -9781,7 +9781,7 @@
         <v>19961030</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>11</v>
@@ -9802,7 +9802,7 @@
         <v>250</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>9</v>
@@ -9834,7 +9834,7 @@
         <v>19961030</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>11</v>
@@ -9884,7 +9884,7 @@
         <v>19961030</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>11</v>
@@ -9934,7 +9934,7 @@
         <v>19961030</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>11</v>
@@ -9975,7 +9975,7 @@
         <v>19961030</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>11</v>
@@ -10028,7 +10028,7 @@
         <v>19961030</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>11</v>
@@ -10081,7 +10081,7 @@
         <v>19961030</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>11</v>
@@ -10131,7 +10131,7 @@
         <v>19961030</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>11</v>
@@ -10181,7 +10181,7 @@
         <v>19961030</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>11</v>
@@ -10231,7 +10231,7 @@
         <v>19961030</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>11</v>
@@ -10287,7 +10287,7 @@
         <v>19961030</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>11</v>
@@ -10337,7 +10337,7 @@
         <v>19961030</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>11</v>
@@ -10390,7 +10390,7 @@
         <v>19961030</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>11</v>
@@ -10440,7 +10440,7 @@
         <v>19961030</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>11</v>
@@ -10490,7 +10490,7 @@
         <v>19961030</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>11</v>
@@ -10540,7 +10540,7 @@
         <v>19961030</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>11</v>
@@ -10591,7 +10591,7 @@
         <v>19961030</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>11</v>
@@ -10641,7 +10641,7 @@
         <v>19970619</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>11</v>
@@ -10665,7 +10665,7 @@
         <v>251</v>
       </c>
       <c r="Q124" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S124" s="5" t="s">
         <v>9</v>
@@ -10706,7 +10706,7 @@
         <v>19970619</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>11</v>
@@ -10730,7 +10730,7 @@
         <v>251</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>9</v>
@@ -10771,7 +10771,7 @@
         <v>19970619</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>11</v>
@@ -10795,7 +10795,7 @@
         <v>251</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S126" s="5" t="s">
         <v>9</v>
@@ -10836,7 +10836,7 @@
         <v>19970619</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>11</v>
@@ -10860,7 +10860,7 @@
         <v>251</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S127" s="5" t="s">
         <v>9</v>
@@ -10901,7 +10901,7 @@
         <v>19970619</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>11</v>
@@ -10925,7 +10925,7 @@
         <v>251</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S128" s="5" t="s">
         <v>9</v>
@@ -10966,7 +10966,7 @@
         <v>19970619</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>11</v>
@@ -10990,7 +10990,7 @@
         <v>251</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>9</v>
@@ -11031,7 +11031,7 @@
         <v>19970619</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>11</v>
@@ -11055,7 +11055,7 @@
         <v>251</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S130" s="5" t="s">
         <v>9</v>
@@ -11096,7 +11096,7 @@
         <v>19970619</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>11</v>
@@ -11121,7 +11121,7 @@
         <v>252</v>
       </c>
       <c r="Q131" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S131" s="5" t="s">
         <v>9</v>
@@ -11162,7 +11162,7 @@
         <v>19970619</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>11</v>
@@ -11186,7 +11186,7 @@
         <v>252</v>
       </c>
       <c r="Q132" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S132" s="5" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>19970619</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>11</v>
@@ -11251,7 +11251,7 @@
         <v>252</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>9</v>
@@ -11292,7 +11292,7 @@
         <v>19970619</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>11</v>
@@ -11317,7 +11317,7 @@
         <v>252</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S134" s="5" t="s">
         <v>9</v>
@@ -11358,7 +11358,7 @@
         <v>19970619</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>11</v>
@@ -11382,7 +11382,7 @@
         <v>252</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S135" s="5" t="s">
         <v>9</v>
@@ -11423,7 +11423,7 @@
         <v>19970619</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>11</v>
@@ -11447,7 +11447,7 @@
         <v>253</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="S136" s="5" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
         <v>19970619</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>11</v>
@@ -11515,7 +11515,7 @@
         <v>253</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>9</v>
@@ -11556,7 +11556,7 @@
         <v>19970619</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>11</v>
@@ -11580,7 +11580,7 @@
         <v>254</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S138" s="5" t="s">
         <v>9</v>
@@ -11621,7 +11621,7 @@
         <v>19970619</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>11</v>
@@ -11645,7 +11645,7 @@
         <v>254</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S139" s="5" t="s">
         <v>9</v>
@@ -11686,7 +11686,7 @@
         <v>19970619</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>11</v>
@@ -11710,7 +11710,7 @@
         <v>254</v>
       </c>
       <c r="Q140" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S140" s="5" t="s">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>19970619</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>11</v>
@@ -11775,7 +11775,7 @@
         <v>254</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>9</v>
@@ -11816,7 +11816,7 @@
         <v>19970619</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>11</v>
@@ -11837,7 +11837,7 @@
         <v>255</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="R142" s="4" t="s">
         <v>200</v>
@@ -11884,7 +11884,7 @@
         <v>19970619</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>11</v>
@@ -11905,7 +11905,7 @@
         <v>255</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S143" s="5" t="s">
         <v>9</v>
@@ -11949,7 +11949,7 @@
         <v>19970619</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>11</v>
@@ -11970,7 +11970,7 @@
         <v>255</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S144" s="5" t="s">
         <v>9</v>
@@ -12020,7 +12020,7 @@
         <v>19970619</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>11</v>
@@ -12041,7 +12041,7 @@
         <v>255</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>19970619</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>11</v>
@@ -12147,7 +12147,7 @@
         <v>19970619</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>11</v>
@@ -12209,7 +12209,7 @@
         <v>19970619</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>11</v>
@@ -12271,7 +12271,7 @@
         <v>19970619</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I149" s="5" t="s">
         <v>11</v>
@@ -12333,7 +12333,7 @@
         <v>19970619</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I150" s="5" t="s">
         <v>11</v>
@@ -12395,7 +12395,7 @@
         <v>19970619</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I151" s="5" t="s">
         <v>11</v>
@@ -12457,7 +12457,7 @@
         <v>19970619</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>11</v>
@@ -12519,7 +12519,7 @@
         <v>19970619</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I153" s="5" t="s">
         <v>11</v>
@@ -12581,7 +12581,7 @@
         <v>19970619</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I154" s="5" t="s">
         <v>11</v>
@@ -12643,7 +12643,7 @@
         <v>19970619</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I155" s="5" t="s">
         <v>11</v>
@@ -12708,7 +12708,7 @@
         <v>19970619</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>11</v>
@@ -12770,7 +12770,7 @@
         <v>19970619</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I157" s="5" t="s">
         <v>11</v>
@@ -12832,7 +12832,7 @@
         <v>19970619</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>11</v>
@@ -12894,7 +12894,7 @@
         <v>19970619</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I159" s="5" t="s">
         <v>11</v>
@@ -12956,7 +12956,7 @@
         <v>19970619</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>11</v>
@@ -13018,7 +13018,7 @@
         <v>19970619</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>11</v>
@@ -13080,7 +13080,7 @@
         <v>19970619</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>11</v>
@@ -13160,7 +13160,7 @@
         <v>8</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P163" s="4">
         <v>2672</v>
@@ -13169,7 +13169,7 @@
         <v>237</v>
       </c>
       <c r="R163" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="S163" s="5" t="s">
         <v>9</v>
@@ -13228,7 +13228,7 @@
         <v>8</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P164" s="4">
         <v>2672</v>
@@ -13237,7 +13237,7 @@
         <v>237</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="S164" s="4" t="s">
         <v>0</v>
@@ -13296,7 +13296,7 @@
         <v>8</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P165" s="4">
         <v>2672</v>
@@ -13305,7 +13305,7 @@
         <v>237</v>
       </c>
       <c r="R165" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="S165" s="5" t="s">
         <v>9</v>
@@ -13364,7 +13364,7 @@
         <v>8</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P166" s="4">
         <v>2672</v>
@@ -13373,7 +13373,7 @@
         <v>237</v>
       </c>
       <c r="R166" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="S166" s="5" t="s">
         <v>9</v>
@@ -13432,13 +13432,13 @@
         <v>8</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P167" s="4" t="s">
         <v>256</v>
       </c>
       <c r="Q167" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="R167" s="4" t="s">
         <v>241</v>
@@ -13858,7 +13858,7 @@
         <v>19970619</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I174" s="5" t="s">
         <v>11</v>
@@ -13876,26 +13876,26 @@
         <v>8</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="R174" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="S174" s="5"/>
       <c r="U174" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V174" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W174" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AD174" s="4" t="s">
         <v>14</v>
@@ -13909,22 +13909,22 @@
         <v>12</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G175" s="4">
         <v>19970619</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I175" s="5" t="s">
         <v>11</v>
@@ -13942,26 +13942,26 @@
         <v>8</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="R175" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="S175" s="5"/>
       <c r="U175" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V175" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W175" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AD175" s="4" t="s">
         <v>14</v>
@@ -13975,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>236</v>
@@ -13990,7 +13990,7 @@
         <v>19970619</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I176" s="5" t="s">
         <v>11</v>
@@ -14008,37 +14008,37 @@
         <v>8</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="R176" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="T176" s="4">
         <v>40</v>
       </c>
       <c r="U176" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="V176" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="W176" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="Z176" s="4">
         <v>70</v>
       </c>
       <c r="AA176" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AB176" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14049,22 +14049,22 @@
         <v>2</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G177" s="4">
         <v>19970619</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I177" s="5" t="s">
         <v>11</v>
@@ -14082,31 +14082,31 @@
         <v>8</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q177" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="R177" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="T177" s="4">
         <v>40</v>
       </c>
       <c r="U177" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="V177" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W177" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AB177" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14132,7 +14132,7 @@
         <v>19970619</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I178" s="5" t="s">
         <v>11</v>
@@ -14150,31 +14150,31 @@
         <v>8</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q178" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="R178" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="T178" s="4">
         <v>40</v>
       </c>
       <c r="U178" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="V178" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W178" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AB178" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14200,7 +14200,7 @@
         <v>19970619</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>11</v>
@@ -14218,31 +14218,31 @@
         <v>8</v>
       </c>
       <c r="O179" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="R179" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="T179" s="4">
         <v>40</v>
       </c>
       <c r="U179" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="V179" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W179" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AB179" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14253,22 +14253,22 @@
         <v>5</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G180" s="4">
         <v>19970619</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>11</v>
@@ -14286,31 +14286,31 @@
         <v>8</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q180" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="R180" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="T180" s="4">
         <v>40</v>
       </c>
       <c r="U180" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="V180" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W180" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB180" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="AB180" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:28" ht="85" x14ac:dyDescent="0.2">
@@ -14321,22 +14321,22 @@
         <v>6</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G181" s="4">
         <v>19970619</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I181" s="5" t="s">
         <v>11</v>
@@ -14354,31 +14354,31 @@
         <v>8</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q181" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="R181" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="T181" s="4">
         <v>40</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="V181" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="W181" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB181" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="AB181" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="182" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14389,22 +14389,22 @@
         <v>7</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G182" s="4">
         <v>19970619</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I182" s="5" t="s">
         <v>11</v>
@@ -14428,16 +14428,16 @@
         <v>2690</v>
       </c>
       <c r="Q182" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="U182" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="V182" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="W182" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14448,22 +14448,22 @@
         <v>8</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G183" s="4">
         <v>19970619</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I183" s="5" t="s">
         <v>11</v>
@@ -14487,16 +14487,16 @@
         <v>2690</v>
       </c>
       <c r="Q183" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="U183" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="V183" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="W183" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14507,22 +14507,22 @@
         <v>9</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G184" s="4">
         <v>19970619</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I184" s="5" t="s">
         <v>11</v>
@@ -14546,16 +14546,16 @@
         <v>2690</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="U184" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="V184" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="W184" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14581,7 +14581,7 @@
         <v>19970619</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I185" s="5" t="s">
         <v>11</v>
@@ -14605,16 +14605,16 @@
         <v>2690</v>
       </c>
       <c r="Q185" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="U185" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="V185" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="W185" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14625,22 +14625,22 @@
         <v>1</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G186" s="4">
         <v>19970620</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="I186" s="5" t="s">
         <v>11</v>
@@ -14681,7 +14681,7 @@
         <v>19970620</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="I187" s="5" t="s">
         <v>11</v>
@@ -14707,22 +14707,22 @@
         <v>3</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G188" s="4">
         <v>19970620</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="I188" s="5" t="s">
         <v>11</v>
@@ -14740,16 +14740,16 @@
         <v>8</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="Z188" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AA188" s="4" t="s">
         <v>273</v>
       </c>
       <c r="AB188" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -14760,22 +14760,22 @@
         <v>4</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G189" s="4">
         <v>19970620</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="I189" s="5" t="s">
         <v>11</v>
@@ -14793,16 +14793,16 @@
         <v>8</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Z189" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AA189" s="4" t="s">
         <v>273</v>
       </c>
       <c r="AB189" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -14813,22 +14813,22 @@
         <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G190" s="4">
         <v>19970620</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="I190" s="5" t="s">
         <v>11</v>
@@ -14849,10 +14849,10 @@
         <v>200</v>
       </c>
       <c r="AA190" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AB190" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="191" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -14863,22 +14863,22 @@
         <v>6</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G191" s="4">
         <v>19970620</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>11</v>
@@ -14896,10 +14896,10 @@
         <v>8</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AB191" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="1:28" ht="68" x14ac:dyDescent="0.2">
@@ -14910,22 +14910,22 @@
         <v>7</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G192" s="4">
         <v>19970620</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I192" s="5" t="s">
         <v>11</v>
@@ -14943,19 +14943,19 @@
         <v>8</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="U192" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V192" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W192" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB192" s="4" t="s">
         <v>201</v>
@@ -14984,7 +14984,7 @@
         <v>19970620</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I193" s="5" t="s">
         <v>11</v>
@@ -15002,25 +15002,25 @@
         <v>8</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U193" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V193" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W193" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB193" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15031,22 +15031,22 @@
         <v>9</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G194" s="4">
         <v>19970620</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I194" s="5" t="s">
         <v>11</v>
@@ -15064,25 +15064,25 @@
         <v>8</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U194" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V194" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W194" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB194" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15108,7 +15108,7 @@
         <v>19970620</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I195" s="5" t="s">
         <v>11</v>
@@ -15126,25 +15126,25 @@
         <v>8</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U195" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V195" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W195" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB195" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="196" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15155,22 +15155,22 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G196" s="4">
         <v>19970620</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>11</v>
@@ -15188,25 +15188,25 @@
         <v>8</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q196" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U196" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V196" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W196" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB196" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15217,22 +15217,22 @@
         <v>12</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G197" s="4">
         <v>19970620</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>11</v>
@@ -15250,25 +15250,25 @@
         <v>8</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U197" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V197" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W197" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB197" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15279,7 +15279,7 @@
         <v>13</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>217</v>
@@ -15294,7 +15294,7 @@
         <v>19970620</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>11</v>
@@ -15312,25 +15312,25 @@
         <v>8</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q198" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U198" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V198" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W198" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB198" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15341,7 +15341,7 @@
         <v>14</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>186</v>
@@ -15356,7 +15356,7 @@
         <v>19970620</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I199" s="5" t="s">
         <v>11</v>
@@ -15374,25 +15374,25 @@
         <v>8</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="U199" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="V199" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W199" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AB199" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -15403,22 +15403,22 @@
         <v>1</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G200" s="4">
         <v>19970620</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I200" s="5" t="s">
         <v>11</v>
@@ -15436,31 +15436,31 @@
         <v>8</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q200" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="R200" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="T200" s="4">
         <v>3</v>
       </c>
       <c r="U200" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V200" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W200" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AB200" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -15471,7 +15471,7 @@
         <v>2</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>214</v>
@@ -15486,7 +15486,7 @@
         <v>19970620</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I201" s="5" t="s">
         <v>11</v>
@@ -15504,31 +15504,31 @@
         <v>8</v>
       </c>
       <c r="O201" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q201" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="R201" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="T201" s="4">
         <v>3</v>
       </c>
       <c r="U201" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V201" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W201" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AB201" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -15539,22 +15539,22 @@
         <v>3</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G202" s="4">
         <v>19970620</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I202" s="5" t="s">
         <v>11</v>
@@ -15572,31 +15572,31 @@
         <v>8</v>
       </c>
       <c r="O202" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q202" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="R202" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="T202" s="4">
         <v>3</v>
       </c>
       <c r="U202" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V202" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W202" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AB202" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15607,22 +15607,22 @@
         <v>4</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G203" s="4">
         <v>19970620</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I203" s="5" t="s">
         <v>11</v>
@@ -15640,19 +15640,19 @@
         <v>8</v>
       </c>
       <c r="O203" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="U203" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V203" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W203" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AB203" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15663,22 +15663,22 @@
         <v>5</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G204" s="4">
         <v>19970620</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I204" s="5" t="s">
         <v>11</v>
@@ -15696,25 +15696,25 @@
         <v>8</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="U204" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V204" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W204" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="Z204" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AA204" s="4" t="s">
         <v>273</v>
       </c>
       <c r="AB204" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15725,22 +15725,22 @@
         <v>6</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G205" s="4">
         <v>19970620</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I205" s="5" t="s">
         <v>11</v>
@@ -15758,19 +15758,19 @@
         <v>8</v>
       </c>
       <c r="O205" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="U205" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V205" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AB205" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15781,22 +15781,22 @@
         <v>7</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G206" s="4">
         <v>19970620</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I206" s="5" t="s">
         <v>11</v>
@@ -15814,19 +15814,19 @@
         <v>8</v>
       </c>
       <c r="O206" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="U206" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="V206" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="W206" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AB206" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -15834,22 +15834,22 @@
         <v>17</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G207" s="4">
         <v>19970620</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="I207" s="5" t="s">
         <v>11</v>
@@ -15870,28 +15870,28 @@
         <v>2717</v>
       </c>
       <c r="Q207" s="4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="R207" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="U207" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="V207" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="W207" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Z207" s="4">
         <v>200</v>
       </c>
       <c r="AA207" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AB207" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="208" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15899,22 +15899,22 @@
         <v>17</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G208" s="4">
         <v>19970621</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I208" s="5" t="s">
         <v>11</v>
@@ -15932,10 +15932,10 @@
         <v>8</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R208" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15943,22 +15943,22 @@
         <v>17</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G209" s="4">
         <v>19970621</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I209" s="5" t="s">
         <v>11</v>
@@ -15976,10 +15976,10 @@
         <v>8</v>
       </c>
       <c r="O209" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R209" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="210" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -15987,22 +15987,22 @@
         <v>17</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G210" s="4">
         <v>19970621</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I210" s="5" t="s">
         <v>11</v>
@@ -16020,10 +16020,10 @@
         <v>8</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R210" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -16046,7 +16046,7 @@
         <v>19970621</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I211" s="5" t="s">
         <v>11</v>
@@ -16064,10 +16064,10 @@
         <v>8</v>
       </c>
       <c r="O211" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R211" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -16090,7 +16090,7 @@
         <v>19970621</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I212" s="5" t="s">
         <v>11</v>
@@ -16108,10 +16108,10 @@
         <v>8</v>
       </c>
       <c r="O212" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R212" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="213" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -16119,22 +16119,22 @@
         <v>17</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G213" s="4">
         <v>19970621</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I213" s="5" t="s">
         <v>11</v>
@@ -16152,10 +16152,10 @@
         <v>8</v>
       </c>
       <c r="O213" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R213" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:28" ht="34" x14ac:dyDescent="0.2">
@@ -16163,22 +16163,22 @@
         <v>17</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G214" s="4">
         <v>19970621</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I214" s="5" t="s">
         <v>11</v>
@@ -16196,10 +16196,10 @@
         <v>8</v>
       </c>
       <c r="O214" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R214" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:28" ht="51" x14ac:dyDescent="0.2">
@@ -16207,22 +16207,22 @@
         <v>17</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G215" s="4">
         <v>19970621</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I215" s="5" t="s">
         <v>11</v>
@@ -16240,13 +16240,13 @@
         <v>8</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R215" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AB215" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
